--- a/Final_Design/WingBoxAnalysis_v2/lift_distr.xlsx
+++ b/Final_Design/WingBoxAnalysis_v2/lift_distr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273b60a69ebe275f/Desktop/SMM/Final_Design/WingBoxAnalysis_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{913BEE2D-1FD9-42D0-973F-50F0F7937B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{10DAF91C-5E15-4D7E-99D9-8243FBA69ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19B4F2AC-584B-4037-9192-F323A4177725}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,9 +63,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,5531 +389,5564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C502"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3.9521095915384499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.2685161490435197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.5000000000000499E-3</v>
       </c>
       <c r="C3">
-        <v>8.1110171156198998</v>
+        <v>-0.339847698675045</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9.0000000000000011E-3</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4.5000000000001697E-3</v>
       </c>
       <c r="C4">
-        <v>9.3343336846794607</v>
+        <v>-0.25994228610188402</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7.5000000000000596E-3</v>
       </c>
       <c r="C5">
-        <v>10.494673541866099</v>
+        <v>7.6467862095370098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.05000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>11.5741312356708</v>
+        <v>0.56377108696424905</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.35E-2</v>
       </c>
       <c r="C7">
-        <v>12.4633232949133</v>
+        <v>1.1600763883006699</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.0999999999999998E-2</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.6500000000000101E-2</v>
       </c>
       <c r="C8">
-        <v>13.2112612264922</v>
+        <v>1.8411312762654199</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.3999999999999997E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.95E-2</v>
       </c>
       <c r="C9">
-        <v>13.921850850398799</v>
+        <v>2.5905088591730898</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.6999999999999996E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.25000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>14.636964116906301</v>
+        <v>3.3960693423954398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.9999999999999995E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="C11">
-        <v>15.3301778183734</v>
+        <v>4.2483337565411503</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.2999999999999995E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.8500000000000102E-2</v>
       </c>
       <c r="C12">
-        <v>15.9610072122194</v>
+        <v>5.1396180744693396</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3.15E-2</v>
       </c>
       <c r="C13">
-        <v>16.517602025118201</v>
+        <v>6.06352356567358</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.9E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.4500000000000197E-2</v>
       </c>
       <c r="C14">
-        <v>17.0212713098142</v>
+        <v>7.0146140527773202</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>17.505502309159699</v>
+        <v>7.9881997701426899</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4.5000000000000005E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4.0499999999999897E-2</v>
       </c>
       <c r="C16">
-        <v>17.993123468918299</v>
+        <v>8.9801860703126692</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4.8000000000000008E-2</v>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="C17">
-        <v>18.486468679697101</v>
+        <v>9.9869636554529002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5.1000000000000011E-2</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.6499999999999903E-2</v>
       </c>
       <c r="C18">
-        <v>18.971969178848099</v>
+        <v>11.0053265366926</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.4000000000000013E-2</v>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4.9500000000000099E-2</v>
       </c>
       <c r="C19">
-        <v>19.432113691423801</v>
+        <v>12.032409165644699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5.7000000000000016E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.2499999999999901E-2</v>
       </c>
       <c r="C20">
-        <v>19.856339633275201</v>
+        <v>13.0656372193263</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6.0000000000000019E-2</v>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5.5500000000000098E-2</v>
       </c>
       <c r="C21">
-        <v>20.2457597400164</v>
+        <v>14.102688357437501</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6.3000000000000014E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5.8499999999999899E-2</v>
       </c>
       <c r="C22">
-        <v>20.611169130938801</v>
+        <v>15.141460424959501</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>6.6000000000000017E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6.1500000000000103E-2</v>
       </c>
       <c r="C23">
-        <v>20.966993861218299</v>
+        <v>16.180045321229301</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6.900000000000002E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>21.324835486473699</v>
+        <v>17.216707255454999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7.2000000000000022E-2</v>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6.7500000000000102E-2</v>
       </c>
       <c r="C25">
-        <v>21.689420259049001</v>
+        <v>18.249864449454801</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7.5000000000000025E-2</v>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7.0499999999999993E-2</v>
       </c>
       <c r="C26">
-        <v>22.0580469466789</v>
+        <v>19.278073586391599</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.8000000000000028E-2</v>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7.3500000000000107E-2</v>
       </c>
       <c r="C27">
-        <v>22.4229915838783</v>
+        <v>20.3000164737423</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8.100000000000003E-2</v>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="C28">
-        <v>22.7753539537687</v>
+        <v>21.3144885115336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>8.4000000000000033E-2</v>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7.9500000000000098E-2</v>
       </c>
       <c r="C29">
-        <v>23.108666633229699</v>
+        <v>22.3203886472755</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>8.7000000000000036E-2</v>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="C30">
-        <v>23.421051519856899</v>
+        <v>23.316710566540799</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9.0000000000000038E-2</v>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8.5500000000000104E-2</v>
       </c>
       <c r="C31">
-        <v>23.7154662016593</v>
+        <v>24.302534919223302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1">
-        <v>9.3000000000000041E-2</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="C32">
-        <v>23.9983056877659</v>
+        <v>25.277022420639199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1">
-        <v>9.6000000000000044E-2</v>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>9.1500000000000095E-2</v>
       </c>
       <c r="C33">
-        <v>24.2770940525131</v>
+        <v>26.2394076969331</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9.9000000000000046E-2</v>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="C34">
-        <v>24.558136487865401</v>
+        <v>27.188993767955001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.10200000000000005</v>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9.75000000000001E-2</v>
       </c>
       <c r="C35">
-        <v>24.8448473050506</v>
+        <v>28.125147079495999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.10500000000000005</v>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.10050000000000001</v>
       </c>
       <c r="C36">
-        <v>25.137138754766301</v>
+        <v>29.047293011684602</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.10800000000000005</v>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.10349999999999999</v>
       </c>
       <c r="C37">
-        <v>25.4318838766646</v>
+        <v>29.954911802327899</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.11100000000000006</v>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.1065</v>
       </c>
       <c r="C38">
-        <v>25.724165824373902</v>
+        <v>30.847534833677301</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.11400000000000006</v>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.1095</v>
       </c>
       <c r="C39">
-        <v>26.008861582451999</v>
+        <v>31.724741239006399</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.11700000000000006</v>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.1125</v>
       </c>
       <c r="C40">
-        <v>26.282093754193301</v>
+        <v>32.586154791873</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.12000000000000006</v>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.11550000000000001</v>
       </c>
       <c r="C41">
-        <v>26.542192531079198</v>
+        <v>33.431441046298801</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.12300000000000007</v>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.11849999999999999</v>
       </c>
       <c r="C42">
-        <v>26.789989049560599</v>
+        <v>34.260304700547699</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.12600000000000006</v>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.1215</v>
       </c>
       <c r="C43">
-        <v>27.028453294330799</v>
+        <v>35.072487160905297</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.12900000000000006</v>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.1245</v>
       </c>
       <c r="C44">
-        <v>27.261846040122101</v>
+        <v>35.867764284982201</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.13200000000000006</v>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.1275</v>
       </c>
       <c r="C45">
-        <v>27.494645009099202</v>
+        <v>36.645944286701102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.13500000000000006</v>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.1305</v>
       </c>
       <c r="C46">
-        <v>27.730521565071701</v>
+        <v>37.4068657873622</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.13800000000000007</v>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.13350000000000001</v>
       </c>
       <c r="C47">
-        <v>27.9715954481191</v>
+        <v>38.150395999083997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.14100000000000007</v>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.13650000000000001</v>
       </c>
       <c r="C48">
-        <v>28.218103267180901</v>
+        <v>38.876429028547697</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.14400000000000007</v>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.13950000000000001</v>
       </c>
       <c r="C49">
-        <v>28.4685088061611</v>
+        <v>39.584884290369601</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.14700000000000008</v>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.14249999999999999</v>
       </c>
       <c r="C50">
-        <v>28.719985112899401</v>
+        <v>40.275705020634803</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.15000000000000008</v>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.14549999999999999</v>
       </c>
       <c r="C51">
-        <v>28.969128717234899</v>
+        <v>40.948856882164897</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.15300000000000008</v>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.14849999999999999</v>
       </c>
       <c r="C52">
-        <v>29.212734942545602</v>
+        <v>41.604326654006101</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.15600000000000008</v>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.1515</v>
       </c>
       <c r="C53">
-        <v>29.448470595533301</v>
+        <v>42.242120998406499</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.15900000000000009</v>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.1545</v>
       </c>
       <c r="C54">
-        <v>29.675319130805601</v>
+        <v>42.862265299246602</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.16200000000000009</v>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.1575</v>
       </c>
       <c r="C55">
-        <v>29.893731587913301</v>
+        <v>43.464802566492203</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.16500000000000009</v>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.1605</v>
       </c>
       <c r="C56">
-        <v>30.1054803485466</v>
+        <v>44.049792401769601</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.16800000000000009</v>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.16350000000000001</v>
       </c>
       <c r="C57">
-        <v>30.313269350188801</v>
+        <v>44.617310020635401</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.1710000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.16650000000000001</v>
       </c>
       <c r="C58">
-        <v>30.520194363673902</v>
+        <v>45.167445327526302</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.1740000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.16949999999999901</v>
       </c>
       <c r="C59">
-        <v>30.729165247265101</v>
+        <v>45.700302039744201</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.1770000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.17249999999999999</v>
       </c>
       <c r="C60">
-        <v>30.942398259882701</v>
+        <v>46.21599685716</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0.1800000000000001</v>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.17549999999999999</v>
       </c>
       <c r="C61">
-        <v>31.1610640119506</v>
+        <v>46.7146586746086</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.18300000000000011</v>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.17849999999999999</v>
       </c>
       <c r="C62">
-        <v>31.385141640155801</v>
+        <v>47.196427834212997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0.18600000000000011</v>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.18149999999999999</v>
       </c>
       <c r="C63">
-        <v>31.613489766625602</v>
+        <v>47.6614554151028</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.18900000000000011</v>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.1845</v>
       </c>
       <c r="C64">
-        <v>31.844107042081198</v>
+        <v>48.109902558208198</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.19200000000000012</v>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.1875</v>
       </c>
       <c r="C65">
-        <v>32.074525551574503</v>
+        <v>48.541939823993999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.19500000000000012</v>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.1905</v>
       </c>
       <c r="C66">
-        <v>32.302262962380397</v>
+        <v>48.957746581169701</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.19800000000000012</v>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.19350000000000001</v>
       </c>
       <c r="C67">
-        <v>32.525255485036702</v>
+        <v>49.357510424565703</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.20100000000000012</v>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.19650000000000001</v>
       </c>
       <c r="C68">
-        <v>32.7422026586651</v>
+        <v>49.741426620501898</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.20400000000000013</v>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.19950000000000001</v>
       </c>
       <c r="C69">
-        <v>32.952773949237702</v>
+        <v>50.109697578102796</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.20700000000000013</v>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.20250000000000001</v>
       </c>
       <c r="C70">
-        <v>33.157652240719699</v>
+        <v>50.462532345125403</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.21000000000000013</v>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.20549999999999999</v>
       </c>
       <c r="C71">
-        <v>33.358416110192898</v>
+        <v>50.800146126970603</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.21300000000000013</v>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.20849999999999999</v>
       </c>
       <c r="C72">
-        <v>33.557287150822297</v>
+        <v>51.122759827643101</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.21600000000000014</v>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.21149999999999999</v>
       </c>
       <c r="C73">
-        <v>33.756787191387197</v>
+        <v>51.430599611510097</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.21900000000000014</v>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.2145</v>
       </c>
       <c r="C74">
-        <v>33.959360897379902</v>
+        <v>51.723896484789201</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.22200000000000014</v>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.2175</v>
       </c>
       <c r="C75">
-        <v>34.167021116618997</v>
+        <v>52.002885895765701</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.22500000000000014</v>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.2205</v>
       </c>
       <c r="C76">
-        <v>34.381067947106303</v>
+        <v>52.267807352808198</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.22800000000000015</v>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.2235</v>
       </c>
       <c r="C77">
-        <v>34.6019194384657</v>
+        <v>52.518904059308603</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0.23100000000000015</v>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.22650000000000001</v>
       </c>
       <c r="C78">
-        <v>34.8290744232077</v>
+        <v>52.756422564731402</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.23400000000000015</v>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.22950000000000001</v>
       </c>
       <c r="C79">
-        <v>35.0612088993228</v>
+        <v>52.980612431006499</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0.23700000000000015</v>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.23250000000000001</v>
       </c>
       <c r="C80">
-        <v>35.296389305209601</v>
+        <v>53.191725913546897</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.24000000000000016</v>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.23549999999999999</v>
       </c>
       <c r="C81">
-        <v>35.532371220639803</v>
+        <v>53.390017656217601</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.24300000000000016</v>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.23849999999999999</v>
       </c>
       <c r="C82">
-        <v>35.766942146211797</v>
+        <v>53.575744399620199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.24600000000000016</v>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.24149999999999999</v>
       </c>
       <c r="C83">
-        <v>35.998262942342997</v>
+        <v>53.749164702096699</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0.24900000000000017</v>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.2445</v>
       </c>
       <c r="C84">
-        <v>36.2251643312933</v>
+        <v>53.910538672890098</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.25200000000000017</v>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.2475</v>
       </c>
       <c r="C85">
-        <v>36.447361936795303</v>
+        <v>54.060127716929003</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0.25500000000000017</v>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.2505</v>
       </c>
       <c r="C86">
-        <v>36.665564432044</v>
+        <v>54.198194290738101</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0.25800000000000017</v>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.2535</v>
       </c>
       <c r="C87">
-        <v>36.881462889168297</v>
+        <v>54.325001668998503</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.26100000000000018</v>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.25650000000000001</v>
       </c>
       <c r="C88">
-        <v>37.097603622341197</v>
+        <v>54.440813721310398</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0.26400000000000018</v>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.25950000000000001</v>
       </c>
       <c r="C89">
-        <v>37.317160010019201</v>
+        <v>54.545894698735403</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0.26700000000000018</v>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.26250000000000001</v>
       </c>
       <c r="C90">
-        <v>37.543629540584902</v>
+        <v>54.640509029714401</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0.27000000000000018</v>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.26550000000000001</v>
       </c>
       <c r="C91">
-        <v>37.780489612311598</v>
+        <v>54.724921124982401</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0.27300000000000019</v>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.26850000000000002</v>
       </c>
       <c r="C92">
-        <v>38.030848865827899</v>
+        <v>54.799395191116602</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.27600000000000019</v>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0.27150000000000002</v>
       </c>
       <c r="C93">
-        <v>38.297129956902403</v>
+        <v>54.864195052375599</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.27900000000000019</v>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.27450000000000002</v>
       </c>
       <c r="C94">
-        <v>38.580815063269398</v>
+        <v>54.919583980502601</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0.28200000000000019</v>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.27750000000000002</v>
       </c>
       <c r="C95">
-        <v>38.882277805259697</v>
+        <v>54.965824532182502</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0.2850000000000002</v>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.28050000000000003</v>
       </c>
       <c r="C96">
-        <v>39.200715646801498</v>
+        <v>55.003178393856103</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0.2880000000000002</v>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.28349999999999997</v>
       </c>
       <c r="C97">
-        <v>39.534186359304897</v>
+        <v>55.031906233612197</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0.2910000000000002</v>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.28649999999999998</v>
       </c>
       <c r="C98">
-        <v>39.879741903019301</v>
+        <v>55.0522675598856</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0.29400000000000021</v>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.28949999999999998</v>
       </c>
       <c r="C99">
-        <v>40.233644118180401</v>
+        <v>55.064520586708703</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0.29700000000000021</v>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.29249999999999998</v>
       </c>
       <c r="C100">
-        <v>40.591639721461398</v>
+        <v>55.068922105268697</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>101</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0.30000000000000021</v>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.29549999999999998</v>
       </c>
       <c r="C101">
-        <v>40.949267800328599</v>
+        <v>55.0657273615397</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>102</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.30300000000000021</v>
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.29849999999999999</v>
       </c>
       <c r="C102">
-        <v>41.302171517692003</v>
+        <v>55.055189939765</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>103</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.30600000000000022</v>
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.30149999999999999</v>
       </c>
       <c r="C103">
-        <v>41.646387015471703</v>
+        <v>55.037561651576098</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>104</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0.30900000000000022</v>
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.30449999999999999</v>
       </c>
       <c r="C104">
-        <v>41.978586210267899</v>
+        <v>55.013092430544702</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0.31200000000000022</v>
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.3075</v>
       </c>
       <c r="C105">
-        <v>42.296255772939702</v>
+        <v>54.9820302319728</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>106</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0.31500000000000022</v>
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.3105</v>
       </c>
       <c r="C106">
-        <v>42.597801406293499</v>
+        <v>54.944620937731102</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0.31800000000000023</v>
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.3135</v>
       </c>
       <c r="C107">
-        <v>42.882573851449997</v>
+        <v>54.901108265969199</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>108</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0.32100000000000023</v>
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.3165</v>
       </c>
       <c r="C108">
-        <v>43.1508201491094</v>
+        <v>54.851733685522703</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>109</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0.32400000000000023</v>
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.31950000000000001</v>
       </c>
       <c r="C109">
-        <v>43.403569923223102</v>
+        <v>54.796736334854103</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>110</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0.32700000000000023</v>
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.32250000000000001</v>
       </c>
       <c r="C110">
-        <v>43.642471340858499</v>
+        <v>54.736352945367102</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>111</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0.33000000000000024</v>
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.32550000000000001</v>
       </c>
       <c r="C111">
-        <v>43.869594600001903</v>
+        <v>54.670817768942698</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>112</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.33300000000000024</v>
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.32850000000000001</v>
       </c>
       <c r="C112">
-        <v>44.087222156387199</v>
+        <v>54.6003625095506</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0.33600000000000024</v>
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.33150000000000002</v>
       </c>
       <c r="C113">
-        <v>44.297644450939998</v>
+        <v>54.525216258795098</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>114</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0.33900000000000025</v>
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.33450000000000002</v>
       </c>
       <c r="C114">
-        <v>44.502977832003303</v>
+        <v>54.4456054352599</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>115</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0.34200000000000025</v>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.33750000000000002</v>
       </c>
       <c r="C115">
-        <v>44.705018001204898</v>
+        <v>54.361753727521297</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>116</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0.34500000000000025</v>
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.34050000000000002</v>
       </c>
       <c r="C116">
-        <v>44.905138057323697</v>
+        <v>54.273882040704798</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>117</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.34800000000000025</v>
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.34350000000000003</v>
       </c>
       <c r="C117">
-        <v>45.104235521450299</v>
+        <v>54.182208446463299</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>118</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0.35100000000000026</v>
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.34649999999999997</v>
       </c>
       <c r="C118">
-        <v>45.302728051294203</v>
+        <v>54.086948136262102</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>119</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.35400000000000026</v>
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.34949999999999998</v>
       </c>
       <c r="C119">
-        <v>45.500593304274403</v>
+        <v>53.988313377856301</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>120</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0.35700000000000026</v>
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.35249999999999998</v>
       </c>
       <c r="C120">
-        <v>45.697444926268297</v>
+        <v>53.886513474854297</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>121</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.36000000000000026</v>
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.35549999999999998</v>
       </c>
       <c r="C121">
-        <v>45.892634167166101</v>
+        <v>53.781754729261401</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.36300000000000027</v>
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.35849999999999999</v>
       </c>
       <c r="C122">
-        <v>46.085365288014401</v>
+        <v>53.674240406903799</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>123</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.36600000000000027</v>
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.36149999999999999</v>
       </c>
       <c r="C123">
-        <v>46.274812748706097</v>
+        <v>53.564170705635398</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>124</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.36900000000000027</v>
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.36449999999999999</v>
       </c>
       <c r="C124">
-        <v>46.460229067810502</v>
+        <v>53.4517427262331</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>125</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0.37200000000000027</v>
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.36749999999999999</v>
       </c>
       <c r="C125">
-        <v>46.641034058080201</v>
+        <v>53.337150445890003</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>126</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0.37500000000000028</v>
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.3705</v>
       </c>
       <c r="C126">
-        <v>46.816878628371803</v>
+        <v>53.220584694219298</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>127</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0.37800000000000028</v>
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.3735</v>
       </c>
       <c r="C127">
-        <v>46.987679231987002</v>
+        <v>53.1022331316831</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>128</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.38100000000000028</v>
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.3765</v>
       </c>
       <c r="C128">
-        <v>47.153622047301702</v>
+        <v>52.982280230365099</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0.38400000000000029</v>
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.3795</v>
       </c>
       <c r="C129">
-        <v>47.315138826718197</v>
+        <v>52.860907257007</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>130</v>
-      </c>
-      <c r="B130" s="1">
-        <v>0.38700000000000029</v>
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.38250000000000001</v>
       </c>
       <c r="C130">
-        <v>47.472858807532802</v>
+        <v>52.738292258233201</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0.39000000000000029</v>
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>0.38550000000000001</v>
       </c>
       <c r="C131">
-        <v>47.627542958936502</v>
+        <v>52.614610047886899</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>132</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.39300000000000029</v>
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.38850000000000001</v>
       </c>
       <c r="C132">
-        <v>47.780008022734798</v>
+        <v>52.490032196409103</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.3960000000000003</v>
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0.39150000000000001</v>
       </c>
       <c r="C133">
-        <v>47.9310482401116</v>
+        <v>52.364727022188397</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0.3990000000000003</v>
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0.39450000000000002</v>
       </c>
       <c r="C134">
-        <v>48.0813623593817</v>
+        <v>52.238859584814598</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0.4020000000000003</v>
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.39750000000000002</v>
       </c>
       <c r="C135">
-        <v>48.231492567801801</v>
+        <v>52.112591680171299</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>136</v>
-      </c>
-      <c r="B136" s="1">
-        <v>0.4050000000000003</v>
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.40050000000000002</v>
       </c>
       <c r="C136">
-        <v>48.381780511711199</v>
+        <v>51.986081837304297</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0.40800000000000031</v>
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.40350000000000003</v>
       </c>
       <c r="C137">
-        <v>48.532343726607401</v>
+        <v>51.859485317002999</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138" s="1">
-        <v>0.41100000000000031</v>
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.40649999999999997</v>
       </c>
       <c r="C138">
-        <v>48.6830737745737</v>
+        <v>51.7329541120369</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>139</v>
-      </c>
-      <c r="B139" s="1">
-        <v>0.41400000000000031</v>
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.40949999999999998</v>
       </c>
       <c r="C139">
-        <v>48.833655365885001</v>
+        <v>51.6066369489888</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>140</v>
-      </c>
-      <c r="B140" s="1">
-        <v>0.41700000000000031</v>
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.41249999999999998</v>
       </c>
       <c r="C140">
-        <v>48.983603897021602</v>
+        <v>51.480679291627901</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>141</v>
-      </c>
-      <c r="B141" s="1">
-        <v>0.42000000000000032</v>
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.41549999999999998</v>
       </c>
       <c r="C141">
-        <v>49.132317315162801</v>
+        <v>51.355223345770099</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142" s="1">
-        <v>0.42300000000000032</v>
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.41849999999999998</v>
       </c>
       <c r="C142">
-        <v>49.279137129760798</v>
+        <v>51.230408065571602</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>143</v>
-      </c>
-      <c r="B143" s="1">
-        <v>0.42600000000000032</v>
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.42149999999999999</v>
       </c>
       <c r="C143">
-        <v>49.423412802584302</v>
+        <v>51.1063691612041</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144" s="1">
-        <v>0.42900000000000033</v>
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.42449999999999999</v>
       </c>
       <c r="C144">
-        <v>49.564563680897201</v>
+        <v>50.983239107864001</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145" s="1">
-        <v>0.43200000000000033</v>
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.42749999999999999</v>
       </c>
       <c r="C145">
-        <v>49.702133072214501</v>
+        <v>50.861147156064497</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146" s="1">
-        <v>0.43500000000000033</v>
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.43049999999999999</v>
       </c>
       <c r="C146">
-        <v>49.835829931798401</v>
+        <v>50.740219343166601</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>147</v>
-      </c>
-      <c r="B147" s="1">
-        <v>0.43800000000000033</v>
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.4335</v>
       </c>
       <c r="C147">
-        <v>49.965554851897103</v>
+        <v>50.620578506101303</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>148</v>
-      </c>
-      <c r="B148" s="1">
-        <v>0.44100000000000034</v>
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.4365</v>
       </c>
       <c r="C148">
-        <v>50.091408488088803</v>
+        <v>50.502344295239503</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
-      </c>
-      <c r="B149" s="1">
-        <v>0.44400000000000034</v>
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.4395</v>
       </c>
       <c r="C149">
-        <v>50.213682104157598</v>
+        <v>50.385633189367098</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
-      </c>
-      <c r="B150" s="1">
-        <v>0.44700000000000034</v>
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.4425</v>
       </c>
       <c r="C150">
-        <v>50.332831432508698</v>
+        <v>50.270558511722903</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>151</v>
-      </c>
-      <c r="B151" s="1">
-        <v>0.45000000000000034</v>
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.44550000000000001</v>
       </c>
       <c r="C151">
-        <v>50.449436410955698</v>
+        <v>50.157230447059</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>152</v>
-      </c>
-      <c r="B152" s="1">
-        <v>0.45300000000000035</v>
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.44850000000000001</v>
       </c>
       <c r="C152">
-        <v>50.564150465383001</v>
+        <v>50.045756059683796</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
-      </c>
-      <c r="B153" s="1">
-        <v>0.45600000000000035</v>
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.45150000000000001</v>
       </c>
       <c r="C153">
-        <v>50.677643782786298</v>
+        <v>49.936239312450503</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
-      </c>
-      <c r="B154" s="1">
-        <v>0.45900000000000035</v>
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.45450000000000002</v>
       </c>
       <c r="C154">
-        <v>50.790545411676</v>
+        <v>49.828781086651503</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>155</v>
-      </c>
-      <c r="B155" s="1">
-        <v>0.46200000000000035</v>
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.45750000000000002</v>
       </c>
       <c r="C155">
-        <v>50.903389019768198</v>
+        <v>49.723479202785299</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>156</v>
-      </c>
-      <c r="B156" s="1">
-        <v>0.46500000000000036</v>
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.46050000000000002</v>
       </c>
       <c r="C156">
-        <v>51.016566746847701</v>
+        <v>49.620428442157802</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>157</v>
-      </c>
-      <c r="B157" s="1">
-        <v>0.46800000000000036</v>
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.46350000000000002</v>
       </c>
       <c r="C157">
-        <v>51.130294857122202</v>
+        <v>49.519720569286001</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>158</v>
-      </c>
-      <c r="B158" s="1">
-        <v>0.47100000000000036</v>
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.46650000000000003</v>
       </c>
       <c r="C158">
-        <v>51.244593888025697</v>
+        <v>49.421444355069198</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>159</v>
-      </c>
-      <c r="B159" s="1">
-        <v>0.47400000000000037</v>
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.46949999999999997</v>
       </c>
       <c r="C159">
-        <v>51.35928479711</v>
+        <v>49.3256856006956</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>160</v>
-      </c>
-      <c r="B160" s="1">
-        <v>0.47700000000000037</v>
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.47249999999999998</v>
       </c>
       <c r="C160">
-        <v>51.474001322106197</v>
+        <v>49.232527162253298</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>161</v>
-      </c>
-      <c r="B161" s="1">
-        <v>0.48000000000000037</v>
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.47549999999999998</v>
       </c>
       <c r="C161">
-        <v>51.588217491480101</v>
+        <v>49.142048976013903</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>162</v>
-      </c>
-      <c r="B162" s="1">
-        <v>0.48300000000000037</v>
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.47849999999999998</v>
       </c>
       <c r="C162">
-        <v>51.701288049724297</v>
+        <v>49.054328084359902</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>163</v>
-      </c>
-      <c r="B163" s="1">
-        <v>0.48600000000000038</v>
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.48149999999999998</v>
       </c>
       <c r="C163">
-        <v>51.812498578135703</v>
+        <v>48.9694386623257</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>164</v>
-      </c>
-      <c r="B164" s="1">
-        <v>0.48900000000000038</v>
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.48449999999999999</v>
       </c>
       <c r="C164">
-        <v>51.9211213662117</v>
+        <v>48.887452044724597</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>165</v>
-      </c>
-      <c r="B165" s="1">
-        <v>0.49200000000000038</v>
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.48749999999999999</v>
       </c>
       <c r="C165">
-        <v>52.026472668474298</v>
+        <v>48.808436753833597</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>166</v>
-      </c>
-      <c r="B166" s="1">
-        <v>0.49500000000000038</v>
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.49049999999999999</v>
       </c>
       <c r="C166">
-        <v>52.127966890500701</v>
+        <v>48.732458527610397</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>167</v>
-      </c>
-      <c r="B167" s="1">
-        <v>0.49800000000000039</v>
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.49349999999999999</v>
       </c>
       <c r="C167">
-        <v>52.225163485951597</v>
+        <v>48.659580348414003</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>168</v>
-      </c>
-      <c r="B168" s="1">
-        <v>0.50100000000000033</v>
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.4965</v>
       </c>
       <c r="C168">
-        <v>52.317802889903199</v>
+        <v>48.589862472206697</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>169</v>
-      </c>
-      <c r="B169" s="1">
-        <v>0.50400000000000034</v>
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.4995</v>
       </c>
       <c r="C169">
-        <v>52.405828618410602</v>
+        <v>48.523362458209199</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>170</v>
-      </c>
-      <c r="B170" s="1">
-        <v>0.50700000000000034</v>
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.50249999999999995</v>
       </c>
       <c r="C170">
-        <v>52.489393668565803</v>
+        <v>48.460135198987899</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>171</v>
-      </c>
-      <c r="B171" s="1">
-        <v>0.51000000000000034</v>
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.50549999999999995</v>
       </c>
       <c r="C171">
-        <v>52.568850483731403</v>
+        <v>48.400232950948897</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>172</v>
-      </c>
-      <c r="B172" s="1">
-        <v>0.51300000000000034</v>
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.50849999999999995</v>
       </c>
       <c r="C172">
-        <v>52.644724924722702</v>
+        <v>48.343705365215698</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>173</v>
-      </c>
-      <c r="B173" s="1">
-        <v>0.51600000000000035</v>
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.51149999999999995</v>
       </c>
       <c r="C173">
-        <v>52.7176758279398</v>
+        <v>48.290599518870202</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>174</v>
-      </c>
-      <c r="B174" s="1">
-        <v>0.51900000000000035</v>
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.51449999999999996</v>
       </c>
       <c r="C174">
-        <v>52.788442758647797</v>
+        <v>48.240959946532797</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>175</v>
-      </c>
-      <c r="B175" s="1">
-        <v>0.52200000000000035</v>
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>0.51749999999999996</v>
       </c>
       <c r="C175">
-        <v>52.8577854139929</v>
+        <v>48.194828672263</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>176</v>
-      </c>
-      <c r="B176" s="1">
-        <v>0.52500000000000036</v>
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.52049999999999996</v>
       </c>
       <c r="C176">
-        <v>52.92641874169</v>
+        <v>48.152245241757299</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>177</v>
-      </c>
-      <c r="B177" s="1">
-        <v>0.52800000000000036</v>
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.52349999999999997</v>
       </c>
       <c r="C177">
-        <v>52.994948179092198</v>
+        <v>48.113246754827102</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>178</v>
-      </c>
-      <c r="B178" s="1">
-        <v>0.53100000000000036</v>
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.52649999999999997</v>
       </c>
       <c r="C178">
-        <v>53.063809464648003</v>
+        <v>48.0778678981344</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>179</v>
-      </c>
-      <c r="B179" s="1">
-        <v>0.53400000000000036</v>
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.52949999999999997</v>
       </c>
       <c r="C179">
-        <v>53.133217229941501</v>
+        <v>48.0461409781689</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>180</v>
-      </c>
-      <c r="B180" s="1">
-        <v>0.53700000000000037</v>
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.53249999999999997</v>
       </c>
       <c r="C180">
-        <v>53.203126064663103</v>
+        <v>48.018095954445698</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>181</v>
-      </c>
-      <c r="B181" s="1">
-        <v>0.54000000000000037</v>
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>0.53549999999999998</v>
       </c>
       <c r="C181">
-        <v>53.273206994954798</v>
+        <v>47.993760472907098</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>182</v>
-      </c>
-      <c r="B182" s="1">
-        <v>0.54300000000000037</v>
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>0.53849999999999998</v>
       </c>
       <c r="C182">
-        <v>53.342841377776303</v>
+        <v>47.973159899510399</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>183</v>
-      </c>
-      <c r="B183" s="1">
-        <v>0.54600000000000037</v>
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>0.54149999999999998</v>
       </c>
       <c r="C183">
-        <v>53.411133150994701</v>
+        <v>47.956317353984701</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>184</v>
-      </c>
-      <c r="B184" s="1">
-        <v>0.54900000000000038</v>
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>0.54449999999999998</v>
       </c>
       <c r="C184">
-        <v>53.476939258106803</v>
+        <v>47.9432537437402</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>185</v>
-      </c>
-      <c r="B185" s="1">
-        <v>0.55200000000000038</v>
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>0.54749999999999999</v>
       </c>
       <c r="C185">
-        <v>53.538916957343098</v>
+        <v>47.933987797913197</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>186</v>
-      </c>
-      <c r="B186" s="1">
-        <v>0.55500000000000038</v>
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>0.55049999999999999</v>
       </c>
       <c r="C186">
-        <v>53.595585694721599</v>
+        <v>47.928536101532302</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>187</v>
-      </c>
-      <c r="B187" s="1">
-        <v>0.55800000000000038</v>
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>0.55349999999999999</v>
       </c>
       <c r="C187">
-        <v>53.645400330620703</v>
+        <v>47.926913129788701</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>188</v>
-      </c>
-      <c r="B188" s="1">
-        <v>0.56100000000000039</v>
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>0.55649999999999999</v>
       </c>
       <c r="C188">
-        <v>53.686831811129302</v>
+        <v>47.929131282397698</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>189</v>
-      </c>
-      <c r="B189" s="1">
-        <v>0.56400000000000039</v>
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>0.559499999999999</v>
       </c>
       <c r="C189">
-        <v>53.718450907831098</v>
+        <v>47.9352009180351</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>190</v>
-      </c>
-      <c r="B190" s="1">
-        <v>0.56700000000000039</v>
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>0.5625</v>
       </c>
       <c r="C190">
-        <v>53.739010437345598</v>
+        <v>47.945130388835302</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>191</v>
-      </c>
-      <c r="B191" s="1">
-        <v>0.5700000000000004</v>
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>0.5655</v>
       </c>
       <c r="C191">
-        <v>53.7475214239211</v>
+        <v>47.958926074936997</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>192</v>
-      </c>
-      <c r="B192" s="1">
-        <v>0.5730000000000004</v>
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>0.56850000000000001</v>
       </c>
       <c r="C192">
-        <v>53.7433189781229</v>
+        <v>47.976592419063302</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>193</v>
-      </c>
-      <c r="B193" s="1">
-        <v>0.5760000000000004</v>
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>0.57149999999999901</v>
       </c>
       <c r="C193">
-        <v>53.726114210851001</v>
+        <v>47.998131961123001</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>194</v>
-      </c>
-      <c r="B194" s="1">
-        <v>0.5790000000000004</v>
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>0.57450000000000001</v>
       </c>
       <c r="C194">
-        <v>53.696029250126799</v>
+        <v>48.023545372820401</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>195</v>
-      </c>
-      <c r="B195" s="1">
-        <v>0.58200000000000041</v>
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>0.57750000000000001</v>
       </c>
       <c r="C195">
-        <v>53.653613333117598</v>
+        <v>48.052831492261603</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>196</v>
-      </c>
-      <c r="B196" s="1">
-        <v>0.58500000000000041</v>
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>0.58050000000000002</v>
       </c>
       <c r="C196">
-        <v>53.599838954657301</v>
+        <v>48.085987358544699</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>197</v>
-      </c>
-      <c r="B197" s="1">
-        <v>0.58800000000000041</v>
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>0.58349999999999902</v>
       </c>
       <c r="C197">
-        <v>53.536078108398698</v>
+        <v>48.123008246322499</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>198</v>
-      </c>
-      <c r="B198" s="1">
-        <v>0.59100000000000041</v>
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>0.58650000000000002</v>
       </c>
       <c r="C198">
-        <v>53.464059698778101</v>
+        <v>48.163887700327102</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>199</v>
-      </c>
-      <c r="B199" s="1">
-        <v>0.59400000000000042</v>
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>0.58950000000000002</v>
       </c>
       <c r="C199">
-        <v>53.385810174394798</v>
+        <v>48.208617569843398</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>200</v>
-      </c>
-      <c r="B200" s="1">
-        <v>0.59700000000000042</v>
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>0.59250000000000003</v>
       </c>
       <c r="C200">
-        <v>53.303580284607101</v>
+        <v>48.2571880431233</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>201</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0.60000000000000042</v>
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>0.59549999999999903</v>
       </c>
       <c r="C201">
-        <v>53.219761547472302</v>
+        <v>48.309587681728097</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>202</v>
-      </c>
-      <c r="B202" s="1">
-        <v>0.60300000000000042</v>
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>0.59850000000000003</v>
       </c>
       <c r="C202">
-        <v>53.136796505019397</v>
+        <v>48.365803454789898</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>203</v>
-      </c>
-      <c r="B203" s="1">
-        <v>0.60600000000000043</v>
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>0.60150000000000003</v>
       </c>
       <c r="C203">
-        <v>53.057087109292397</v>
+        <v>48.425820773182402</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>204</v>
-      </c>
-      <c r="B204" s="1">
-        <v>0.60900000000000043</v>
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>0.60450000000000004</v>
       </c>
       <c r="C204">
-        <v>52.982905620148401</v>
+        <v>48.489623523590303</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>205</v>
-      </c>
-      <c r="B205" s="1">
-        <v>0.61200000000000043</v>
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>0.60749999999999904</v>
       </c>
       <c r="C205">
-        <v>52.916312206521198</v>
+        <v>48.5571941024699</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>206</v>
-      </c>
-      <c r="B206" s="1">
-        <v>0.61500000000000044</v>
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>0.61050000000000004</v>
       </c>
       <c r="C206">
-        <v>52.859083041907603</v>
+        <v>48.628513449889702</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>207</v>
-      </c>
-      <c r="B207" s="1">
-        <v>0.61800000000000044</v>
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>0.61350000000000005</v>
       </c>
       <c r="C207">
-        <v>52.812652098144902</v>
+        <v>48.703561083243898</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>208</v>
-      </c>
-      <c r="B208" s="1">
-        <v>0.62100000000000044</v>
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>0.61650000000000005</v>
       </c>
       <c r="C208">
-        <v>52.778069104182798</v>
+        <v>48.782315130830199</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>209</v>
-      </c>
-      <c r="B209" s="1">
-        <v>0.62400000000000044</v>
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>0.61949999999999905</v>
       </c>
       <c r="C209">
-        <v>52.7559752905076</v>
+        <v>48.864752365281902</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>210</v>
-      </c>
-      <c r="B210" s="1">
-        <v>0.62700000000000045</v>
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>0.62250000000000005</v>
       </c>
       <c r="C210">
-        <v>52.746597631624098</v>
+        <v>48.950848236848898</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>211</v>
-      </c>
-      <c r="B211" s="1">
-        <v>0.63000000000000045</v>
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>0.62549999999999994</v>
       </c>
       <c r="C211">
-        <v>52.749761376915899</v>
+        <v>49.040576906517401</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>212</v>
-      </c>
-      <c r="B212" s="1">
-        <v>0.63300000000000045</v>
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>0.62849999999999995</v>
       </c>
       <c r="C212">
-        <v>52.764919771927801</v>
+        <v>49.1339112789626</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>213</v>
-      </c>
-      <c r="B213" s="1">
-        <v>0.63600000000000045</v>
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>0.63149999999999995</v>
       </c>
       <c r="C213">
-        <v>52.7911990621066</v>
+        <v>49.230823035325898</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>214</v>
-      </c>
-      <c r="B214" s="1">
-        <v>0.63900000000000046</v>
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>0.63449999999999995</v>
       </c>
       <c r="C214">
-        <v>52.827456178362397</v>
+        <v>49.3312826658102</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>215</v>
-      </c>
-      <c r="B215" s="1">
-        <v>0.64200000000000046</v>
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>0.63749999999999996</v>
       </c>
       <c r="C215">
-        <v>52.872345960277002</v>
+        <v>49.435259502086197</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>216</v>
-      </c>
-      <c r="B216" s="1">
-        <v>0.64500000000000046</v>
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>0.64049999999999996</v>
       </c>
       <c r="C216">
-        <v>52.924394401572798</v>
+        <v>49.542721749502597</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>217</v>
-      </c>
-      <c r="B217" s="1">
-        <v>0.64800000000000046</v>
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>0.64349999999999996</v>
       </c>
       <c r="C217">
-        <v>52.982074217181001</v>
+        <v>49.653636519095201</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>218</v>
-      </c>
-      <c r="B218" s="1">
-        <v>0.65100000000000047</v>
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>0.64649999999999996</v>
       </c>
       <c r="C218">
-        <v>53.043879035643798</v>
+        <v>49.767969859386497</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>219</v>
-      </c>
-      <c r="B219" s="1">
-        <v>0.65400000000000047</v>
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>0.64949999999999997</v>
       </c>
       <c r="C219">
-        <v>53.108392708610197</v>
+        <v>49.885686787972197</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>220</v>
-      </c>
-      <c r="B220" s="1">
-        <v>0.65700000000000047</v>
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>0.65249999999999997</v>
       </c>
       <c r="C220">
-        <v>53.174350585686199</v>
+        <v>50.006751322886601</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>221</v>
-      </c>
-      <c r="B221" s="1">
-        <v>0.66000000000000048</v>
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>0.65549999999999997</v>
       </c>
       <c r="C221">
-        <v>53.240690104742903</v>
+        <v>50.131126513742899</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>222</v>
-      </c>
-      <c r="B222" s="1">
-        <v>0.66300000000000048</v>
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>0.65849999999999997</v>
       </c>
       <c r="C222">
-        <v>53.306588665232098</v>
+        <v>50.258774472641797</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>223</v>
-      </c>
-      <c r="B223" s="1">
-        <v>0.66600000000000048</v>
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>0.66149999999999998</v>
       </c>
       <c r="C223">
-        <v>53.371487450584397</v>
+        <v>50.389656404844303</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>224</v>
-      </c>
-      <c r="B224" s="1">
-        <v>0.66900000000000048</v>
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>0.66449999999999998</v>
       </c>
       <c r="C224">
-        <v>53.435100607931297</v>
+        <v>50.5237326392025</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>225</v>
-      </c>
-      <c r="B225" s="1">
-        <v>0.67200000000000049</v>
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>0.66749999999999998</v>
       </c>
       <c r="C225">
-        <v>53.497409940817498</v>
+        <v>50.660962658343799</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>226</v>
-      </c>
-      <c r="B226" s="1">
-        <v>0.67500000000000049</v>
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>0.67049999999999998</v>
       </c>
       <c r="C226">
-        <v>53.558645985940302</v>
+        <v>50.801305128605399</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>227</v>
-      </c>
-      <c r="B227" s="1">
-        <v>0.67800000000000049</v>
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>0.67349999999999999</v>
       </c>
       <c r="C227">
-        <v>53.619256993779402</v>
+        <v>50.944717929711103</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228</v>
-      </c>
-      <c r="B228" s="1">
-        <v>0.68100000000000049</v>
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>0.67649999999999999</v>
       </c>
       <c r="C228">
-        <v>53.679867885283102</v>
+        <v>51.09115818419</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>229</v>
-      </c>
-      <c r="B229" s="1">
-        <v>0.6840000000000005</v>
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>0.67949999999999999</v>
       </c>
       <c r="C229">
-        <v>53.741231688356898</v>
+        <v>51.2405822865299</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>230</v>
-      </c>
-      <c r="B230" s="1">
-        <v>0.6870000000000005</v>
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>0.6825</v>
       </c>
       <c r="C230">
-        <v>53.804176251356502</v>
+        <v>51.392945932063</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>231</v>
-      </c>
-      <c r="B231" s="1">
-        <v>0.6900000000000005</v>
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>0.6855</v>
       </c>
       <c r="C231">
-        <v>53.869549176136601</v>
+        <v>51.548204145579398</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>232</v>
-      </c>
-      <c r="B232" s="1">
-        <v>0.6930000000000005</v>
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>0.688499999999999</v>
       </c>
       <c r="C232">
-        <v>53.938163908072099</v>
+        <v>51.7063113096645</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>233</v>
-      </c>
-      <c r="B233" s="1">
-        <v>0.69600000000000051</v>
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>0.6915</v>
       </c>
       <c r="C233">
-        <v>54.0107497699587</v>
+        <v>51.867221192757697</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234</v>
-      </c>
-      <c r="B234" s="1">
-        <v>0.69900000000000051</v>
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>0.69450000000000001</v>
       </c>
       <c r="C234">
-        <v>54.087908442864901</v>
+        <v>52.030886976927498</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>235</v>
-      </c>
-      <c r="B235" s="1">
-        <v>0.70200000000000051</v>
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>0.69750000000000001</v>
       </c>
       <c r="C235">
-        <v>54.170078997991602</v>
+        <v>52.197261285361201</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>236</v>
-      </c>
-      <c r="B236" s="1">
-        <v>0.70500000000000052</v>
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>0.70049999999999901</v>
       </c>
       <c r="C236">
-        <v>54.257513092551399</v>
+        <v>52.366296209565</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>237</v>
-      </c>
-      <c r="B237" s="1">
-        <v>0.70800000000000052</v>
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>0.70350000000000001</v>
       </c>
       <c r="C237">
-        <v>54.350261386450804</v>
+        <v>52.5379433362721</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>238</v>
-      </c>
-      <c r="B238" s="1">
-        <v>0.71100000000000052</v>
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>0.70650000000000002</v>
       </c>
       <c r="C238">
-        <v>54.448171644220601</v>
+        <v>52.7121537740558</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>239</v>
-      </c>
-      <c r="B239" s="1">
-        <v>0.71400000000000052</v>
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>0.70950000000000002</v>
       </c>
       <c r="C239">
-        <v>54.550898388082302</v>
+        <v>52.8888781796446</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>240</v>
-      </c>
-      <c r="B240" s="1">
-        <v>0.71700000000000053</v>
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>0.71249999999999902</v>
       </c>
       <c r="C240">
-        <v>54.657923392382102</v>
+        <v>53.068066783937297</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>241</v>
-      </c>
-      <c r="B241" s="1">
-        <v>0.72000000000000053</v>
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>0.71550000000000002</v>
       </c>
       <c r="C241">
-        <v>54.768585783992201</v>
+        <v>53.249669417715502</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>242</v>
-      </c>
-      <c r="B242" s="1">
-        <v>0.72300000000000053</v>
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>0.71850000000000003</v>
       </c>
       <c r="C242">
-        <v>54.882120061422</v>
+        <v>53.433635537050002</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>243</v>
-      </c>
-      <c r="B243" s="1">
-        <v>0.72600000000000053</v>
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>0.72150000000000003</v>
       </c>
       <c r="C243">
-        <v>54.997699986791297</v>
+        <v>53.619914248401301</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>244</v>
-      </c>
-      <c r="B244" s="1">
-        <v>0.72900000000000054</v>
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>0.72449999999999903</v>
       </c>
       <c r="C244">
-        <v>55.114486053860098</v>
+        <v>53.808454333409998</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>245</v>
-      </c>
-      <c r="B245" s="1">
-        <v>0.73200000000000054</v>
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>0.72750000000000004</v>
       </c>
       <c r="C245">
-        <v>55.231674100787302</v>
+        <v>53.999204273375597</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>246</v>
-      </c>
-      <c r="B246" s="1">
-        <v>0.73500000000000054</v>
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>0.73050000000000004</v>
       </c>
       <c r="C246">
-        <v>55.348542621200203</v>
+        <v>54.1921122734229</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>247</v>
-      </c>
-      <c r="B247" s="1">
-        <v>0.73800000000000054</v>
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>0.73350000000000004</v>
       </c>
       <c r="C247">
-        <v>55.464496428753201</v>
+        <v>54.387126286353102</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>248</v>
-      </c>
-      <c r="B248" s="1">
-        <v>0.74100000000000055</v>
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>0.73649999999999904</v>
       </c>
       <c r="C248">
-        <v>55.579104540515601</v>
+        <v>54.584194036178502</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>249</v>
-      </c>
-      <c r="B249" s="1">
-        <v>0.74400000000000055</v>
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>0.73950000000000005</v>
       </c>
       <c r="C249">
-        <v>55.692130450296901</v>
+        <v>54.783263041339303</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>250</v>
-      </c>
-      <c r="B250" s="1">
-        <v>0.74700000000000055</v>
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>0.74250000000000005</v>
       </c>
       <c r="C250">
-        <v>55.803553347411601</v>
+        <v>54.984280637600897</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>251</v>
-      </c>
-      <c r="B251" s="1">
-        <v>0.75000000000000056</v>
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>0.74550000000000005</v>
       </c>
       <c r="C251">
-        <v>55.913579279309502</v>
+        <v>55.187194000631003</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>252</v>
-      </c>
-      <c r="B252" s="1">
-        <v>0.75300000000000056</v>
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>0.74849999999999905</v>
       </c>
       <c r="C252">
-        <v>56.022641735820798</v>
+        <v>55.391950168254397</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>253</v>
-      </c>
-      <c r="B253" s="1">
-        <v>0.75600000000000056</v>
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>0.75149999999999995</v>
       </c>
       <c r="C253">
-        <v>56.131391625385703</v>
+        <v>55.598496062385003</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>254</v>
-      </c>
-      <c r="B254" s="1">
-        <v>0.75900000000000056</v>
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>0.75449999999999995</v>
       </c>
       <c r="C254">
-        <v>56.240677096624403</v>
+        <v>55.8067785106348</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>255</v>
-      </c>
-      <c r="B255" s="1">
-        <v>0.76200000000000057</v>
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>0.75749999999999995</v>
       </c>
       <c r="C255">
-        <v>56.351514110202103</v>
+        <v>56.016744267596998</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>256</v>
-      </c>
-      <c r="B256" s="1">
-        <v>0.76500000000000057</v>
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>0.76049999999999995</v>
       </c>
       <c r="C256">
-        <v>56.465049066580299</v>
+        <v>56.228340035804202</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>257</v>
-      </c>
-      <c r="B257" s="1">
-        <v>0.76800000000000057</v>
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>0.76349999999999996</v>
       </c>
       <c r="C257">
-        <v>56.582515128292499</v>
+        <v>56.441512486360899</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>258</v>
-      </c>
-      <c r="B258" s="1">
-        <v>0.77100000000000057</v>
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>0.76649999999999996</v>
       </c>
       <c r="C258">
-        <v>56.705184127864698</v>
+        <v>56.656208279248503</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>259</v>
-      </c>
-      <c r="B259" s="1">
-        <v>0.77400000000000058</v>
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>0.76949999999999996</v>
       </c>
       <c r="C259">
-        <v>56.834316115476099</v>
+        <v>56.872374083303598</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>260</v>
-      </c>
-      <c r="B260" s="1">
-        <v>0.77700000000000058</v>
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>0.77249999999999996</v>
       </c>
       <c r="C260">
-        <v>56.971108669366799</v>
+        <v>57.089956595868102</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>261</v>
-      </c>
-      <c r="B261" s="1">
-        <v>0.78000000000000058</v>
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>0.77549999999999997</v>
       </c>
       <c r="C261">
-        <v>57.116648066611297</v>
+        <v>57.3089025621126</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>262</v>
-      </c>
-      <c r="B262" s="1">
-        <v>0.78300000000000058</v>
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>0.77849999999999997</v>
       </c>
       <c r="C262">
-        <v>57.271864296209799</v>
+        <v>57.529158794030003</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>263</v>
-      </c>
-      <c r="B263" s="1">
-        <v>0.78600000000000059</v>
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>0.78149999999999997</v>
       </c>
       <c r="C263">
-        <v>57.437491698389103</v>
+        <v>57.750672189102403</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>264</v>
-      </c>
-      <c r="B264" s="1">
-        <v>0.78900000000000059</v>
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>0.78449999999999998</v>
       </c>
       <c r="C264">
-        <v>57.614036744813703</v>
+        <v>57.9733897486378</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>265</v>
-      </c>
-      <c r="B265" s="1">
-        <v>0.79200000000000059</v>
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>0.78749999999999998</v>
       </c>
       <c r="C265">
-        <v>57.801754148095497</v>
+        <v>58.197258595780703</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>266</v>
-      </c>
-      <c r="B266" s="1">
-        <v>0.7950000000000006</v>
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>0.79049999999999998</v>
       </c>
       <c r="C266">
-        <v>58.0006321215794</v>
+        <v>58.422225993192598</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>267</v>
-      </c>
-      <c r="B267" s="1">
-        <v>0.7980000000000006</v>
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>0.79349999999999998</v>
       </c>
       <c r="C267">
-        <v>58.210387219109002</v>
+        <v>58.6482393604051</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>268</v>
-      </c>
-      <c r="B268" s="1">
-        <v>0.8010000000000006</v>
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>0.79649999999999999</v>
       </c>
       <c r="C268">
-        <v>58.4304687869991</v>
+        <v>58.875246290845503</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>269</v>
-      </c>
-      <c r="B269" s="1">
-        <v>0.8040000000000006</v>
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>0.79949999999999999</v>
       </c>
       <c r="C269">
-        <v>58.660072674007097</v>
+        <v>59.103194568534398</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>270</v>
-      </c>
-      <c r="B270" s="1">
-        <v>0.80700000000000061</v>
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>0.80249999999999999</v>
       </c>
       <c r="C270">
-        <v>58.898163485835603</v>
+        <v>59.332032184456402</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>271</v>
-      </c>
-      <c r="B271" s="1">
-        <v>0.81000000000000061</v>
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>0.80549999999999999</v>
       </c>
       <c r="C271">
-        <v>59.143504352922498</v>
+        <v>59.561707352604401</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>272</v>
-      </c>
-      <c r="B272" s="1">
-        <v>0.81300000000000061</v>
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>0.8085</v>
       </c>
       <c r="C272">
-        <v>59.394692915946599</v>
+        <v>59.792168525697299</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>273</v>
-      </c>
-      <c r="B273" s="1">
-        <v>0.81600000000000061</v>
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>0.8115</v>
       </c>
       <c r="C273">
-        <v>59.650202031763698</v>
+        <v>60.023364410573002</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>274</v>
-      </c>
-      <c r="B274" s="1">
-        <v>0.81900000000000062</v>
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>0.8145</v>
       </c>
       <c r="C274">
-        <v>59.908423569480902</v>
+        <v>60.255243983255802</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>275</v>
-      </c>
-      <c r="B275" s="1">
-        <v>0.82200000000000062</v>
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>0.81749999999999901</v>
       </c>
       <c r="C275">
-        <v>60.167713604972903</v>
+        <v>60.487756503700702</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>276</v>
-      </c>
-      <c r="B276" s="1">
-        <v>0.82500000000000062</v>
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>0.82050000000000001</v>
       </c>
       <c r="C276">
-        <v>60.426437331997001</v>
+        <v>60.720851530213203</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>277</v>
-      </c>
-      <c r="B277" s="1">
-        <v>0.82800000000000062</v>
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>0.82350000000000001</v>
       </c>
       <c r="C277">
-        <v>60.683012085831102</v>
+        <v>60.954478933548401</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>278</v>
-      </c>
-      <c r="B278" s="1">
-        <v>0.83100000000000063</v>
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>0.82650000000000001</v>
       </c>
       <c r="C278">
-        <v>60.935947014867999</v>
+        <v>61.188588910687002</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>279</v>
-      </c>
-      <c r="B279" s="1">
-        <v>0.83400000000000063</v>
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>0.82949999999999902</v>
       </c>
       <c r="C279">
-        <v>61.183878128340197</v>
+        <v>61.423131998292099</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>280</v>
-      </c>
-      <c r="B280" s="1">
-        <v>0.83700000000000063</v>
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>0.83250000000000002</v>
       </c>
       <c r="C280">
-        <v>61.425597683874798</v>
+        <v>61.658059085846403</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>281</v>
-      </c>
-      <c r="B281" s="1">
-        <v>0.84000000000000064</v>
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>0.83550000000000002</v>
       </c>
       <c r="C281">
-        <v>61.660077145087698</v>
+        <v>61.893321428470301</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>282</v>
-      </c>
-      <c r="B282" s="1">
-        <v>0.84300000000000064</v>
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>0.83850000000000002</v>
       </c>
       <c r="C282">
-        <v>61.8864832243205</v>
+        <v>62.1288706594245</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>283</v>
-      </c>
-      <c r="B283" s="1">
-        <v>0.84600000000000064</v>
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>0.84149999999999903</v>
       </c>
       <c r="C283">
-        <v>62.104186816106399</v>
+        <v>62.364658802295097</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>284</v>
-      </c>
-      <c r="B284" s="1">
-        <v>0.84900000000000064</v>
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>0.84450000000000003</v>
       </c>
       <c r="C284">
-        <v>62.312764910564702</v>
+        <v>62.600638282865098</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>285</v>
-      </c>
-      <c r="B285" s="1">
-        <v>0.85200000000000065</v>
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>0.84750000000000003</v>
       </c>
       <c r="C285">
-        <v>62.511995841123699</v>
+        <v>62.836761940673</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>286</v>
-      </c>
-      <c r="B286" s="1">
-        <v>0.85500000000000065</v>
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>0.85050000000000003</v>
       </c>
       <c r="C286">
-        <v>62.701848457533998</v>
+        <v>63.072983040258102</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>287</v>
-      </c>
-      <c r="B287" s="1">
-        <v>0.85800000000000065</v>
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>0.85349999999999904</v>
       </c>
       <c r="C287">
-        <v>62.882466014585098</v>
+        <v>63.309255282096998</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>288</v>
-      </c>
-      <c r="B288" s="1">
-        <v>0.86100000000000065</v>
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>0.85650000000000004</v>
       </c>
       <c r="C288">
-        <v>63.054145722813097</v>
+        <v>63.545532813230302</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>289</v>
-      </c>
-      <c r="B289" s="1">
-        <v>0.86400000000000066</v>
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>0.85950000000000004</v>
       </c>
       <c r="C289">
-        <v>63.217315015518999</v>
+        <v>63.781770237581902</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>290</v>
-      </c>
-      <c r="B290" s="1">
-        <v>0.86700000000000066</v>
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>0.86250000000000004</v>
       </c>
       <c r="C290">
-        <v>63.372505644650701</v>
+        <v>64.0179226259731</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>291</v>
-      </c>
-      <c r="B291" s="1">
-        <v>0.87000000000000066</v>
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>0.86549999999999905</v>
       </c>
       <c r="C291">
-        <v>63.520326726796597</v>
+        <v>64.253945525831497</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>292</v>
-      </c>
-      <c r="B292" s="1">
-        <v>0.87300000000000066</v>
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>0.86850000000000005</v>
       </c>
       <c r="C292">
-        <v>63.661437822149999</v>
+        <v>64.489794970598894</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>293</v>
-      </c>
-      <c r="B293" s="1">
-        <v>0.87600000000000067</v>
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>0.87150000000000005</v>
       </c>
       <c r="C293">
-        <v>63.796523048153396</v>
+        <v>64.725427488836999</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>294</v>
-      </c>
-      <c r="B294" s="1">
-        <v>0.87900000000000067</v>
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>0.87450000000000006</v>
       </c>
       <c r="C294">
-        <v>63.926267111637998</v>
+        <v>64.960800113034395</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>295</v>
-      </c>
-      <c r="B295" s="1">
-        <v>0.88200000000000067</v>
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>0.87749999999999995</v>
       </c>
       <c r="C295">
-        <v>64.051333995900706</v>
+        <v>65.195870388117498</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>296</v>
-      </c>
-      <c r="B296" s="1">
-        <v>0.88500000000000068</v>
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>0.88049999999999995</v>
       </c>
       <c r="C296">
-        <v>64.172348870516004</v>
+        <v>65.430596379664294</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>297</v>
-      </c>
-      <c r="B297" s="1">
-        <v>0.88800000000000068</v>
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>0.88349999999999995</v>
       </c>
       <c r="C297">
-        <v>64.289883610443596</v>
+        <v>65.664936681826404</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>298</v>
-      </c>
-      <c r="B298" s="1">
-        <v>0.89100000000000068</v>
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>0.88649999999999995</v>
       </c>
       <c r="C298">
-        <v>64.404446125948397</v>
+        <v>65.898850424958098</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>299</v>
-      </c>
-      <c r="B299" s="1">
-        <v>0.89400000000000068</v>
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>0.88949999999999996</v>
       </c>
       <c r="C299">
-        <v>64.516473524457595</v>
+        <v>66.132297282956699</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>300</v>
-      </c>
-      <c r="B300" s="1">
-        <v>0.89700000000000069</v>
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>0.89249999999999996</v>
       </c>
       <c r="C300">
-        <v>64.626328957532095</v>
+        <v>66.365237480315102</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>301</v>
-      </c>
-      <c r="B301" s="1">
-        <v>0.90000000000000069</v>
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0.89549999999999996</v>
       </c>
       <c r="C301">
-        <v>64.734301857428704</v>
+        <v>66.597631798888898</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>302</v>
-      </c>
-      <c r="B302" s="1">
-        <v>0.90300000000000069</v>
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>0.89849999999999997</v>
       </c>
       <c r="C302">
-        <v>64.840611143813305</v>
+        <v>66.829441584379595</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>303</v>
-      </c>
-      <c r="B303" s="1">
-        <v>0.90600000000000069</v>
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>0.90149999999999997</v>
       </c>
       <c r="C303">
-        <v>64.945410886181307</v>
+        <v>67.060628752537298</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>304</v>
-      </c>
-      <c r="B304" s="1">
-        <v>0.9090000000000007</v>
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>0.90449999999999997</v>
       </c>
       <c r="C304">
-        <v>65.048797843982101</v>
+        <v>67.291155795083199</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>305</v>
-      </c>
-      <c r="B305" s="1">
-        <v>0.9120000000000007</v>
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>0.90749999999999997</v>
       </c>
       <c r="C305">
-        <v>65.1508202753093</v>
+        <v>67.520985785355904</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>306</v>
-      </c>
-      <c r="B306" s="1">
-        <v>0.9150000000000007</v>
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>0.91049999999999998</v>
       </c>
       <c r="C306">
-        <v>65.251487405686106</v>
+        <v>67.750082383682596</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>307</v>
-      </c>
-      <c r="B307" s="1">
-        <v>0.9180000000000007</v>
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>0.91349999999999998</v>
       </c>
       <c r="C307">
-        <v>65.3507789788964</v>
+        <v>67.978409842477305</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>308</v>
-      </c>
-      <c r="B308" s="1">
-        <v>0.92100000000000071</v>
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>0.91649999999999998</v>
       </c>
       <c r="C308">
-        <v>65.448654368619103</v>
+        <v>68.205933011069703</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>309</v>
-      </c>
-      <c r="B309" s="1">
-        <v>0.92400000000000071</v>
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>0.91949999999999998</v>
       </c>
       <c r="C309">
-        <v>65.545060808391497</v>
+        <v>68.432617340264798</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>310</v>
-      </c>
-      <c r="B310" s="1">
-        <v>0.92700000000000071</v>
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>0.92249999999999999</v>
       </c>
       <c r="C310">
-        <v>65.639940392889002</v>
+        <v>68.658428886638205</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>311</v>
-      </c>
-      <c r="B311" s="1">
-        <v>0.93000000000000071</v>
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>0.92549999999999999</v>
       </c>
       <c r="C311">
-        <v>65.733235609888496</v>
+        <v>68.883334316566902</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>312</v>
-      </c>
-      <c r="B312" s="1">
-        <v>0.93300000000000072</v>
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>0.92849999999999999</v>
       </c>
       <c r="C312">
-        <v>65.824893273524793</v>
+        <v>69.107300909999793</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>313</v>
-      </c>
-      <c r="B313" s="1">
-        <v>0.93600000000000072</v>
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>0.93149999999999999</v>
       </c>
       <c r="C313">
-        <v>65.914866839599398</v>
+        <v>69.330296563969696</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>314</v>
-      </c>
-      <c r="B314" s="1">
-        <v>0.93900000000000072</v>
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>0.934499999999999</v>
       </c>
       <c r="C314">
-        <v>66.0031171870924</v>
+        <v>69.552289795848907</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>315</v>
-      </c>
-      <c r="B315" s="1">
-        <v>0.94200000000000073</v>
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>0.9375</v>
       </c>
       <c r="C315">
-        <v>66.089612041627902</v>
+        <v>69.773249746351297</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>316</v>
-      </c>
-      <c r="B316" s="1">
-        <v>0.94500000000000073</v>
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>0.9405</v>
       </c>
       <c r="C316">
-        <v>66.1743242921888</v>
+        <v>69.993146182283795</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>317</v>
-      </c>
-      <c r="B317" s="1">
-        <v>0.94800000000000073</v>
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>0.94350000000000001</v>
       </c>
       <c r="C317">
-        <v>66.257229508617101</v>
+        <v>70.211949499048004</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>318</v>
-      </c>
-      <c r="B318" s="1">
-        <v>0.95100000000000073</v>
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>0.94649999999999901</v>
       </c>
       <c r="C318">
-        <v>66.338303002195005</v>
+        <v>70.429630722897201</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>319</v>
-      </c>
-      <c r="B319" s="1">
-        <v>0.95400000000000074</v>
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>0.94950000000000001</v>
       </c>
       <c r="C319">
-        <v>66.417516783890605</v>
+        <v>70.646161512948595</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>320</v>
-      </c>
-      <c r="B320" s="1">
-        <v>0.95700000000000074</v>
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>0.95250000000000001</v>
       </c>
       <c r="C320">
-        <v>66.494836764834503</v>
+        <v>70.861514162955501</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>321</v>
-      </c>
-      <c r="B321" s="1">
-        <v>0.96000000000000074</v>
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>0.95550000000000002</v>
       </c>
       <c r="C321">
-        <v>66.570220512588506</v>
+        <v>71.075661602840199</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>322</v>
-      </c>
-      <c r="B322" s="1">
-        <v>0.96300000000000074</v>
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>0.95849999999999902</v>
       </c>
       <c r="C322">
-        <v>66.643615827089207</v>
+        <v>71.288577399992107</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>323</v>
-      </c>
-      <c r="B323" s="1">
-        <v>0.96600000000000075</v>
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>0.96150000000000002</v>
       </c>
       <c r="C323">
-        <v>66.714960335045305</v>
+        <v>71.500235760331904</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>324</v>
-      </c>
-      <c r="B324" s="1">
-        <v>0.96900000000000075</v>
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>0.96450000000000002</v>
       </c>
       <c r="C324">
-        <v>66.784182224944701</v>
+        <v>71.710611529145794</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>325</v>
-      </c>
-      <c r="B325" s="1">
-        <v>0.97200000000000075</v>
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>0.96750000000000003</v>
       </c>
       <c r="C325">
-        <v>66.851202161143306</v>
+        <v>71.919680191691697</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>326</v>
-      </c>
-      <c r="B326" s="1">
-        <v>0.97500000000000075</v>
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>0.97049999999999903</v>
       </c>
       <c r="C326">
-        <v>66.915936329452805</v>
+        <v>72.1274178735802</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>327</v>
-      </c>
-      <c r="B327" s="1">
-        <v>0.97800000000000076</v>
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>0.97350000000000003</v>
       </c>
       <c r="C327">
-        <v>66.978300482982803</v>
+        <v>72.333801340933206</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>328</v>
-      </c>
-      <c r="B328" s="1">
-        <v>0.98100000000000076</v>
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>0.97650000000000003</v>
       </c>
       <c r="C328">
-        <v>67.038214780286395</v>
+        <v>72.5388080003233</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>329</v>
-      </c>
-      <c r="B329" s="1">
-        <v>0.98400000000000076</v>
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>0.97950000000000004</v>
       </c>
       <c r="C329">
-        <v>67.095609142270902</v>
+        <v>72.742415898495395</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>330</v>
-      </c>
-      <c r="B330" s="1">
-        <v>0.98700000000000077</v>
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>0.98249999999999904</v>
       </c>
       <c r="C330">
-        <v>67.150428803435901</v>
+        <v>72.9446037218745</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>331</v>
-      </c>
-      <c r="B331" s="1">
-        <v>0.99000000000000077</v>
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>0.98550000000000004</v>
       </c>
       <c r="C331">
-        <v>67.202639699600894</v>
+        <v>73.1453507958622</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>332</v>
-      </c>
-      <c r="B332" s="1">
-        <v>0.99300000000000077</v>
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>0.98850000000000005</v>
       </c>
       <c r="C332">
-        <v>67.252233320315696</v>
+        <v>73.344637083924397</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>333</v>
-      </c>
-      <c r="B333" s="1">
-        <v>0.99600000000000077</v>
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>0.99150000000000005</v>
       </c>
       <c r="C333">
-        <v>67.2992306605761</v>
+        <v>73.542443186472894</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>334</v>
-      </c>
-      <c r="B334" s="1">
-        <v>0.99900000000000078</v>
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>0.99449999999999905</v>
       </c>
       <c r="C334">
-        <v>67.343684933264001</v>
+        <v>73.738750339543998</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>335</v>
-      </c>
-      <c r="B335" s="1">
-        <v>1.0020000000000007</v>
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>0.99750000000000005</v>
       </c>
       <c r="C335">
-        <v>67.385682749869304</v>
+        <v>73.933540413277001</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>336</v>
-      </c>
-      <c r="B336" s="1">
-        <v>1.0050000000000006</v>
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>1.0004999999999999</v>
       </c>
       <c r="C336">
-        <v>67.425343540580698</v>
+        <v>74.126795910195</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>337</v>
-      </c>
-      <c r="B337" s="1">
-        <v>1.0080000000000005</v>
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1.0035000000000001</v>
       </c>
       <c r="C337">
-        <v>67.462817062937006</v>
+        <v>74.318499963291501</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>338</v>
-      </c>
-      <c r="B338" s="1">
-        <v>1.0110000000000003</v>
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1.0065</v>
       </c>
       <c r="C338">
-        <v>67.498278937422</v>
+        <v>74.508636333924102</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>339</v>
-      </c>
-      <c r="B339" s="1">
-        <v>1.0140000000000002</v>
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1.0095000000000001</v>
       </c>
       <c r="C339">
-        <v>67.531924244573204</v>
+        <v>74.697189409520803</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>340</v>
-      </c>
-      <c r="B340" s="1">
-        <v>1.0170000000000001</v>
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1.0125</v>
       </c>
       <c r="C340">
-        <v>67.563959316969402</v>
+        <v>74.884144201099005</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>341</v>
-      </c>
-      <c r="B341" s="1">
-        <v>1.02</v>
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1.0155000000000001</v>
       </c>
       <c r="C341">
-        <v>67.5945919562471</v>
+        <v>75.069486340601898</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>342</v>
-      </c>
-      <c r="B342" s="1">
-        <v>1.0229999999999999</v>
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1.0185</v>
       </c>
       <c r="C342">
-        <v>67.624020395538807</v>
+        <v>75.253202078054102</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>343</v>
-      </c>
-      <c r="B343" s="1">
-        <v>1.0259999999999998</v>
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1.0215000000000001</v>
       </c>
       <c r="C343">
-        <v>67.652421407114005</v>
+        <v>75.435278278540395</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>344</v>
-      </c>
-      <c r="B344" s="1">
-        <v>1.0289999999999997</v>
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1.0245</v>
       </c>
       <c r="C344">
-        <v>67.679938019664505</v>
+        <v>75.615702419009395</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>345</v>
-      </c>
-      <c r="B345" s="1">
-        <v>1.0319999999999996</v>
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>1.0275000000000001</v>
       </c>
       <c r="C345">
-        <v>67.706667356328097</v>
+        <v>75.794462584905304</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>346</v>
-      </c>
-      <c r="B346" s="1">
-        <v>1.0349999999999995</v>
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1.0305</v>
       </c>
       <c r="C346">
-        <v>67.732649130665806</v>
+        <v>75.971547466631804</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>347</v>
-      </c>
-      <c r="B347" s="1">
-        <v>1.0379999999999994</v>
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1.0335000000000001</v>
       </c>
       <c r="C347">
-        <v>67.757855341715398</v>
+        <v>76.146946355849195</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>348</v>
-      </c>
-      <c r="B348" s="1">
-        <v>1.0409999999999993</v>
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1.0365</v>
       </c>
       <c r="C348">
-        <v>67.782181690200304</v>
+        <v>76.320649141609195</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>349</v>
-      </c>
-      <c r="B349" s="1">
-        <v>1.0439999999999992</v>
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1.0395000000000001</v>
       </c>
       <c r="C349">
-        <v>67.805441196191694</v>
+        <v>76.492646306328695</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>350</v>
-      </c>
-      <c r="B350" s="1">
-        <v>1.046999999999999</v>
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1.0425</v>
       </c>
       <c r="C350">
-        <v>67.827360435184502</v>
+        <v>76.662928921607602</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>351</v>
-      </c>
-      <c r="B351" s="1">
-        <v>1.0499999999999989</v>
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1.0455000000000001</v>
       </c>
       <c r="C351">
-        <v>67.847578726753198</v>
+        <v>76.831488643891603</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>352</v>
-      </c>
-      <c r="B352" s="1">
-        <v>1.0529999999999988</v>
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1.0485</v>
       </c>
       <c r="C352">
-        <v>67.865650510617002</v>
+        <v>76.998317709983993</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>353</v>
-      </c>
-      <c r="B353" s="1">
-        <v>1.0559999999999987</v>
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>1.0515000000000001</v>
       </c>
       <c r="C353">
-        <v>67.881051032719398</v>
+        <v>77.1634089324087</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>354</v>
-      </c>
-      <c r="B354" s="1">
-        <v>1.0589999999999986</v>
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1.0545</v>
       </c>
       <c r="C354">
-        <v>67.893185343009094</v>
+        <v>77.326755694628204</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>355</v>
-      </c>
-      <c r="B355" s="1">
-        <v>1.0619999999999985</v>
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1.0575000000000001</v>
       </c>
       <c r="C355">
-        <v>67.901400481625899</v>
+        <v>77.488351946119195</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>356</v>
-      </c>
-      <c r="B356" s="1">
-        <v>1.0649999999999984</v>
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>1.0605</v>
       </c>
       <c r="C356">
-        <v>67.905000605964304</v>
+        <v>77.648192197307196</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>357</v>
-      </c>
-      <c r="B357" s="1">
-        <v>1.0679999999999983</v>
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1.0634999999999999</v>
       </c>
       <c r="C357">
-        <v>67.903264692466095</v>
+        <v>77.806271514366699</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>358</v>
-      </c>
-      <c r="B358" s="1">
-        <v>1.0709999999999982</v>
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1.0665</v>
       </c>
       <c r="C358">
-        <v>67.895466338678105</v>
+        <v>77.962585513885401</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>359</v>
-      </c>
-      <c r="B359" s="1">
-        <v>1.0739999999999981</v>
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1.0694999999999999</v>
       </c>
       <c r="C359">
-        <v>67.880895097429701</v>
+        <v>78.117130357399006</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>360</v>
-      </c>
-      <c r="B360" s="1">
-        <v>1.076999999999998</v>
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1.0725</v>
       </c>
       <c r="C360">
-        <v>67.858878699755493</v>
+        <v>78.269902745796998</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>361</v>
-      </c>
-      <c r="B361" s="1">
-        <v>1.0799999999999979</v>
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>1.0754999999999999</v>
       </c>
       <c r="C361">
-        <v>67.828805469558205</v>
+        <v>78.4208999136046</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>362</v>
-      </c>
-      <c r="B362" s="1">
-        <v>1.0829999999999977</v>
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1.0785</v>
       </c>
       <c r="C362">
-        <v>67.790146203315203</v>
+        <v>78.570119623141494</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>363</v>
-      </c>
-      <c r="B363" s="1">
-        <v>1.0859999999999976</v>
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1.0814999999999999</v>
       </c>
       <c r="C363">
-        <v>67.742474783843306</v>
+        <v>78.717560158561994</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>364</v>
-      </c>
-      <c r="B364" s="1">
-        <v>1.0889999999999975</v>
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1.0845</v>
       </c>
       <c r="C364">
-        <v>67.685486818769803</v>
+        <v>78.863220319778804</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>365</v>
-      </c>
-      <c r="B365" s="1">
-        <v>1.0919999999999974</v>
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1.0874999999999999</v>
       </c>
       <c r="C365">
-        <v>67.619015641455505</v>
+        <v>79.007099416273107</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>366</v>
-      </c>
-      <c r="B366" s="1">
-        <v>1.0949999999999973</v>
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1.0905</v>
       </c>
       <c r="C366">
-        <v>67.543045083290593</v>
+        <v>79.149197260795006</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>367</v>
-      </c>
-      <c r="B367" s="1">
-        <v>1.0979999999999972</v>
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>1.0934999999999999</v>
       </c>
       <c r="C367">
-        <v>67.457718519234803</v>
+        <v>79.289514162955101</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>368</v>
-      </c>
-      <c r="B368" s="1">
-        <v>1.1009999999999971</v>
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>1.0965</v>
       </c>
       <c r="C368">
-        <v>67.363343800098505</v>
+        <v>79.4280509227127</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>369</v>
-      </c>
-      <c r="B369" s="1">
-        <v>1.103999999999997</v>
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>1.0994999999999999</v>
       </c>
       <c r="C369">
-        <v>67.260393811566104</v>
+        <v>79.564808823761496</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>370</v>
-      </c>
-      <c r="B370" s="1">
-        <v>1.1069999999999969</v>
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>1.1025</v>
       </c>
       <c r="C370">
-        <v>67.149502536982794</v>
+        <v>79.699789626816099</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>371</v>
-      </c>
-      <c r="B371" s="1">
-        <v>1.1099999999999968</v>
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>1.1054999999999999</v>
       </c>
       <c r="C371">
-        <v>67.031456643737499</v>
+        <v>79.832995562803603</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>372</v>
-      </c>
-      <c r="B372" s="1">
-        <v>1.1129999999999967</v>
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1.1085</v>
       </c>
       <c r="C372">
-        <v>66.907182756697594</v>
+        <v>79.964429325961007</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>373</v>
-      </c>
-      <c r="B373" s="1">
-        <v>1.1159999999999966</v>
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1.1114999999999999</v>
       </c>
       <c r="C373">
-        <v>66.777730721605195</v>
+        <v>80.094094066842601</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>374</v>
-      </c>
-      <c r="B374" s="1">
-        <v>1.1189999999999964</v>
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1.1145</v>
       </c>
       <c r="C374">
-        <v>66.644253291768806</v>
+        <v>80.221993385239998</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>375</v>
-      </c>
-      <c r="B375" s="1">
-        <v>1.1219999999999963</v>
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1.1174999999999999</v>
       </c>
       <c r="C375">
-        <v>66.507982788268194</v>
+        <v>80.348131323017796</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>376</v>
-      </c>
-      <c r="B376" s="1">
-        <v>1.1249999999999962</v>
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1.1205000000000001</v>
       </c>
       <c r="C376">
-        <v>66.370205383172305</v>
+        <v>80.472512356867298</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>377</v>
-      </c>
-      <c r="B377" s="1">
-        <v>1.1279999999999961</v>
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1.1234999999999999</v>
       </c>
       <c r="C377">
-        <v>66.232233733547901</v>
+        <v>80.595141390980899</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>378</v>
-      </c>
-      <c r="B378" s="1">
-        <v>1.130999999999996</v>
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1.1265000000000001</v>
       </c>
       <c r="C378">
-        <v>66.095378748638694</v>
+        <v>80.716023749651299</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>379</v>
-      </c>
-      <c r="B379" s="1">
-        <v>1.1339999999999959</v>
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1.1294999999999999</v>
       </c>
       <c r="C379">
-        <v>65.960921301678695</v>
+        <v>80.835165169796696</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>380</v>
-      </c>
-      <c r="B380" s="1">
-        <v>1.1369999999999958</v>
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1.1325000000000001</v>
       </c>
       <c r="C380">
-        <v>65.8300847004475</v>
+        <v>80.952571793416197</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>381</v>
-      </c>
-      <c r="B381" s="1">
-        <v>1.1399999999999957</v>
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>1.1355</v>
       </c>
       <c r="C381">
-        <v>65.704008706850502</v>
+        <v>81.0682501599766</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>382</v>
-      </c>
-      <c r="B382" s="1">
-        <v>1.1429999999999956</v>
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>1.1385000000000001</v>
       </c>
       <c r="C382">
-        <v>65.583725846431804</v>
+        <v>81.182207198735298</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>383</v>
-      </c>
-      <c r="B383" s="1">
-        <v>1.1459999999999955</v>
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>1.1415</v>
       </c>
       <c r="C383">
-        <v>65.470140675568899</v>
+        <v>81.294450221000801</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>384</v>
-      </c>
-      <c r="B384" s="1">
-        <v>1.1489999999999954</v>
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>1.1445000000000001</v>
       </c>
       <c r="C384">
-        <v>65.364012579757102</v>
+        <v>81.404986912333499</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>385</v>
-      </c>
-      <c r="B385" s="1">
-        <v>1.1519999999999953</v>
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1.1475</v>
       </c>
       <c r="C385">
-        <v>65.265942564154201</v>
+        <v>81.513825324690799</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>386</v>
-      </c>
-      <c r="B386" s="1">
-        <v>1.1549999999999951</v>
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>1.1505000000000001</v>
       </c>
       <c r="C386">
-        <v>65.176364371309802</v>
+        <v>81.620973868516998</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>387</v>
-      </c>
-      <c r="B387" s="1">
-        <v>1.157999999999995</v>
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>1.1535</v>
       </c>
       <c r="C387">
-        <v>65.095540125074393</v>
+        <v>81.726441304784103</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>388</v>
-      </c>
-      <c r="B388" s="1">
-        <v>1.1609999999999949</v>
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>1.1565000000000001</v>
       </c>
       <c r="C388">
-        <v>65.023560558686697</v>
+        <v>81.830236736982201</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>389</v>
-      </c>
-      <c r="B389" s="1">
-        <v>1.1639999999999948</v>
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>1.1595</v>
       </c>
       <c r="C389">
-        <v>64.960349743707397</v>
+        <v>81.932369603065695</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>390</v>
-      </c>
-      <c r="B390" s="1">
-        <v>1.1669999999999947</v>
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>1.1625000000000001</v>
       </c>
       <c r="C390">
-        <v>64.905674099510307</v>
+        <v>82.032849667355805</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>391</v>
-      </c>
-      <c r="B391" s="1">
-        <v>1.1699999999999946</v>
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>1.1655</v>
       </c>
       <c r="C391">
-        <v>64.859155334936801</v>
+        <v>82.131687012403503</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>392</v>
-      </c>
-      <c r="B392" s="1">
-        <v>1.1729999999999945</v>
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>1.1685000000000001</v>
       </c>
       <c r="C392">
-        <v>64.820286858615802</v>
+        <v>82.228892030814094</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>393</v>
-      </c>
-      <c r="B393" s="1">
-        <v>1.1759999999999944</v>
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>1.1715</v>
       </c>
       <c r="C393">
-        <v>64.788453095971207</v>
+        <v>82.324475417036993</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>394</v>
-      </c>
-      <c r="B394" s="1">
-        <v>1.1789999999999943</v>
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>1.1745000000000001</v>
       </c>
       <c r="C394">
-        <v>64.762951072119904</v>
+        <v>82.418448159124495</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>395</v>
-      </c>
-      <c r="B395" s="1">
-        <v>1.1819999999999942</v>
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1.1775</v>
       </c>
       <c r="C395">
-        <v>64.743013563008603</v>
+        <v>82.510821530458699</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>396</v>
-      </c>
-      <c r="B396" s="1">
-        <v>1.1849999999999941</v>
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1.1805000000000001</v>
       </c>
       <c r="C396">
-        <v>64.727833083782599</v>
+        <v>82.601607081453395</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>397</v>
-      </c>
-      <c r="B397" s="1">
-        <v>1.1879999999999939</v>
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>1.1835</v>
       </c>
       <c r="C397">
-        <v>64.7165859742409</v>
+        <v>82.690816631230604</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>398</v>
-      </c>
-      <c r="B398" s="1">
-        <v>1.1909999999999938</v>
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1.1865000000000001</v>
       </c>
       <c r="C398">
-        <v>64.708455856180194</v>
+        <v>82.778462259275301</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>399</v>
-      </c>
-      <c r="B399" s="1">
-        <v>1.1939999999999937</v>
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>1.1895</v>
       </c>
       <c r="C399">
-        <v>64.702655775543406</v>
+        <v>82.864556297071204</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>400</v>
-      </c>
-      <c r="B400" s="1">
-        <v>1.1969999999999936</v>
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>1.1924999999999999</v>
       </c>
       <c r="C400">
-        <v>64.698448401851607</v>
+        <v>82.949111319719805</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>401</v>
-      </c>
-      <c r="B401" s="1">
-        <v>1.1999999999999935</v>
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1.1955</v>
       </c>
       <c r="C401">
-        <v>64.695163736024696</v>
+        <v>83.0321401375449</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>402</v>
-      </c>
-      <c r="B402" s="1">
-        <v>1.2029999999999934</v>
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>1.1984999999999999</v>
       </c>
       <c r="C402">
-        <v>64.692213872367205</v>
+        <v>83.113655787686</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>403</v>
-      </c>
-      <c r="B403" s="1">
-        <v>1.2059999999999933</v>
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1.2015</v>
       </c>
       <c r="C403">
-        <v>64.689104467746404</v>
+        <v>83.193671525682404</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404">
-        <v>404</v>
-      </c>
-      <c r="B404" s="1">
-        <v>1.2089999999999932</v>
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>1.2044999999999999</v>
       </c>
       <c r="C404">
-        <v>64.685442686946104</v>
+        <v>83.272200817050901</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>405</v>
-      </c>
-      <c r="B405" s="1">
-        <v>1.2119999999999931</v>
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1.2075</v>
       </c>
       <c r="C405">
-        <v>64.680941513788497</v>
+        <v>83.349257328858499</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406">
-        <v>406</v>
-      </c>
-      <c r="B406" s="1">
-        <v>1.214999999999993</v>
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>1.2104999999999999</v>
       </c>
       <c r="C406">
-        <v>64.675420438738698</v>
+        <v>83.424854921294795</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>407</v>
-      </c>
-      <c r="B407" s="1">
-        <v>1.2179999999999929</v>
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>1.2135</v>
       </c>
       <c r="C407">
-        <v>64.668802651245798</v>
+        <v>83.499007639244496</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>408</v>
-      </c>
-      <c r="B408" s="1">
-        <v>1.2209999999999928</v>
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>1.2164999999999999</v>
       </c>
       <c r="C408">
-        <v>64.661108975188398</v>
+        <v>83.571729703862403</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>409</v>
-      </c>
-      <c r="B409" s="1">
-        <v>1.2239999999999926</v>
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>1.2195</v>
       </c>
       <c r="C409">
-        <v>64.652448884930607</v>
+        <v>83.643035504155804</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>410</v>
-      </c>
-      <c r="B410" s="1">
-        <v>1.2269999999999925</v>
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>1.2224999999999999</v>
       </c>
       <c r="C410">
-        <v>64.643009024583705</v>
+        <v>83.712939588572695</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>411</v>
-      </c>
-      <c r="B411" s="1">
-        <v>1.2299999999999924</v>
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>1.2255</v>
       </c>
       <c r="C411">
-        <v>64.633039721579195</v>
+        <v>83.7814566566026</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>412</v>
-      </c>
-      <c r="B412" s="1">
-        <v>1.2329999999999923</v>
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>1.2284999999999999</v>
       </c>
       <c r="C412">
-        <v>64.6228400356745</v>
+        <v>83.848601550388395</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>413</v>
-      </c>
-      <c r="B413" s="1">
-        <v>1.2359999999999922</v>
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1.2315</v>
       </c>
       <c r="C413">
-        <v>64.612741914808794</v>
+        <v>83.914389246354304</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>414</v>
-      </c>
-      <c r="B414" s="1">
-        <v>1.2389999999999921</v>
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>1.2344999999999999</v>
       </c>
       <c r="C414">
-        <v>64.603094039273202</v>
+        <v>83.978834846850702</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>415</v>
-      </c>
-      <c r="B415" s="1">
-        <v>1.241999999999992</v>
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>1.2375</v>
       </c>
       <c r="C415">
-        <v>64.594245925637097</v>
+        <v>84.041953571818894</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>416</v>
-      </c>
-      <c r="B416" s="1">
-        <v>1.2449999999999919</v>
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>1.2404999999999999</v>
       </c>
       <c r="C416">
-        <v>64.586532832647094</v>
+        <v>84.103760750477903</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>417</v>
-      </c>
-      <c r="B417" s="1">
-        <v>1.2479999999999918</v>
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>1.2435</v>
       </c>
       <c r="C417">
-        <v>64.580261964402396</v>
+        <v>84.164271813035597</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>418</v>
-      </c>
-      <c r="B418" s="1">
-        <v>1.2509999999999917</v>
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1.2464999999999999</v>
       </c>
       <c r="C418">
-        <v>64.575700403579305</v>
+        <v>84.223502282425898</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>419</v>
-      </c>
-      <c r="B419" s="1">
-        <v>1.2539999999999916</v>
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1.2495000000000001</v>
       </c>
       <c r="C419">
-        <v>64.5730651319152</v>
+        <v>84.281467766075394</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>420</v>
-      </c>
-      <c r="B420" s="1">
-        <v>1.2569999999999915</v>
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>1.2524999999999999</v>
       </c>
       <c r="C420">
-        <v>64.572515409521699</v>
+        <v>84.338183947700102</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>421</v>
-      </c>
-      <c r="B421" s="1">
-        <v>1.2599999999999913</v>
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>1.2555000000000001</v>
       </c>
       <c r="C421">
-        <v>64.574147692120405</v>
+        <v>84.393666579136195</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>422</v>
-      </c>
-      <c r="B422" s="1">
-        <v>1.2629999999999912</v>
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>1.2585</v>
       </c>
       <c r="C422">
-        <v>64.577993169381301</v>
+        <v>84.447931472205198</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>423</v>
-      </c>
-      <c r="B423" s="1">
-        <v>1.2659999999999911</v>
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>1.2615000000000001</v>
       </c>
       <c r="C423">
-        <v>64.584017911630994</v>
+        <v>84.500994490617401</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>424</v>
-      </c>
-      <c r="B424" s="1">
-        <v>1.268999999999991</v>
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1.2645</v>
       </c>
       <c r="C424">
-        <v>64.592125519628993</v>
+        <v>84.552871541914101</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>425</v>
-      </c>
-      <c r="B425" s="1">
-        <v>1.2719999999999909</v>
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1.2675000000000001</v>
       </c>
       <c r="C425">
-        <v>64.602162086052004</v>
+        <v>84.603578569451699</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>426</v>
-      </c>
-      <c r="B426" s="1">
-        <v>1.2749999999999908</v>
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1.2705</v>
       </c>
       <c r="C426">
-        <v>64.613923200611794</v>
+        <v>84.653131544429996</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>427</v>
-      </c>
-      <c r="B427" s="1">
-        <v>1.2779999999999907</v>
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>1.2735000000000001</v>
       </c>
       <c r="C427">
-        <v>64.627162665818304</v>
+        <v>84.701546457965804</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>428</v>
-      </c>
-      <c r="B428" s="1">
-        <v>1.2809999999999906</v>
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1.2765</v>
       </c>
       <c r="C428">
-        <v>64.641602539269996</v>
+        <v>84.748839313214503</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>429</v>
-      </c>
-      <c r="B429" s="1">
-        <v>1.2839999999999905</v>
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>1.2795000000000001</v>
       </c>
       <c r="C429">
-        <v>64.656944082433796</v>
+        <v>84.795026117541099</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>430</v>
-      </c>
-      <c r="B430" s="1">
-        <v>1.2869999999999904</v>
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>1.2825</v>
       </c>
       <c r="C430">
-        <v>64.672879176059794</v>
+        <v>84.840122874744196</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>431</v>
-      </c>
-      <c r="B431" s="1">
-        <v>1.2899999999999903</v>
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>1.2855000000000001</v>
       </c>
       <c r="C431">
-        <v>64.6891017589234</v>
+        <v>84.884145577332205</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>432</v>
-      </c>
-      <c r="B432" s="1">
-        <v>1.2929999999999902</v>
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>1.2885</v>
       </c>
       <c r="C432">
-        <v>64.705318859217996</v>
+        <v>84.927110198856695</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>433</v>
-      </c>
-      <c r="B433" s="1">
-        <v>1.29599999999999</v>
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>1.2915000000000001</v>
       </c>
       <c r="C433">
-        <v>64.721260815747698</v>
+        <v>84.969032686302896</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>434</v>
-      </c>
-      <c r="B434" s="1">
-        <v>1.2989999999999899</v>
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>1.2945</v>
       </c>
       <c r="C434">
-        <v>64.736690327725398</v>
+        <v>85.009928952539397</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>435</v>
-      </c>
-      <c r="B435" s="1">
-        <v>1.3019999999999898</v>
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>1.2975000000000001</v>
       </c>
       <c r="C435">
-        <v>64.751410025612302</v>
+        <v>85.049814868830296</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436">
-        <v>436</v>
-      </c>
-      <c r="B436" s="1">
-        <v>1.3049999999999897</v>
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>1.3005</v>
       </c>
       <c r="C436">
-        <v>64.765268318821299</v>
+        <v>85.088706257409498</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437">
-        <v>437</v>
-      </c>
-      <c r="B437" s="1">
-        <v>1.3079999999999896</v>
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1.3035000000000001</v>
       </c>
       <c r="C437">
-        <v>64.778163346721698</v>
+        <v>85.1266188841211</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>438</v>
-      </c>
-      <c r="B438" s="1">
-        <v>1.3109999999999895</v>
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>1.3065</v>
       </c>
       <c r="C438">
-        <v>64.790044934505502</v>
+        <v>85.163568451126693</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>439</v>
-      </c>
-      <c r="B439" s="1">
-        <v>1.3139999999999894</v>
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1.3095000000000001</v>
       </c>
       <c r="C439">
-        <v>64.800914532287507</v>
+        <v>85.199570589680604</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>440</v>
-      </c>
-      <c r="B440" s="1">
-        <v>1.3169999999999893</v>
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>1.3125</v>
       </c>
       <c r="C440">
-        <v>64.810823191489106</v>
+        <v>85.234640852976895</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441">
-        <v>441</v>
-      </c>
-      <c r="B441" s="1">
-        <v>1.3199999999999892</v>
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>1.3154999999999999</v>
       </c>
       <c r="C441">
-        <v>64.819867704383498</v>
+        <v>85.268794709067507</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>442</v>
-      </c>
-      <c r="B442" s="1">
-        <v>1.3229999999999891</v>
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>1.3185</v>
       </c>
       <c r="C442">
-        <v>64.828185098151195</v>
+        <v>85.3020475338555</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>443</v>
-      </c>
-      <c r="B443" s="1">
-        <v>1.325999999999989</v>
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>1.3214999999999999</v>
       </c>
       <c r="C443">
-        <v>64.835945731656295</v>
+        <v>85.334414604162902</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>444</v>
-      </c>
-      <c r="B444" s="1">
-        <v>1.3289999999999889</v>
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>1.3245</v>
       </c>
       <c r="C444">
-        <v>64.843345289550896</v>
+        <v>85.365911090876807</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445">
-        <v>445</v>
-      </c>
-      <c r="B445" s="1">
-        <v>1.3319999999999887</v>
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1.3274999999999999</v>
       </c>
       <c r="C445">
-        <v>64.850596002769706</v>
+        <v>85.396552052173902</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>446</v>
-      </c>
-      <c r="B446" s="1">
-        <v>1.3349999999999886</v>
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1.3305</v>
       </c>
       <c r="C446">
-        <v>64.857917446004805</v>
+        <v>85.426352426826199</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>447</v>
-      </c>
-      <c r="B447" s="1">
-        <v>1.3379999999999885</v>
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>1.3334999999999999</v>
       </c>
       <c r="C447">
-        <v>64.865527270826306</v>
+        <v>85.455327027588297</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>448</v>
-      </c>
-      <c r="B448" s="1">
-        <v>1.3409999999999884</v>
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>1.3365</v>
       </c>
       <c r="C448">
-        <v>64.873632227743897</v>
+        <v>85.483490534669201</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>449</v>
-      </c>
-      <c r="B449" s="1">
-        <v>1.3439999999999883</v>
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>1.3394999999999999</v>
       </c>
       <c r="C449">
-        <v>64.8824198121347</v>
+        <v>85.510857489288895</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>450</v>
-      </c>
-      <c r="B450" s="1">
-        <v>1.3469999999999882</v>
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>1.3425</v>
       </c>
       <c r="C450">
-        <v>64.8920508385511</v>
+        <v>85.537442287322406</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>451</v>
-      </c>
-      <c r="B451" s="1">
-        <v>1.3499999999999881</v>
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>1.3454999999999999</v>
       </c>
       <c r="C451">
-        <v>64.902653206803393</v>
+        <v>85.563259173031298</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>452</v>
-      </c>
-      <c r="B452" s="1">
-        <v>1.352999999999988</v>
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>1.3485</v>
       </c>
       <c r="C452">
-        <v>64.9143170731178</v>
+        <v>85.588322232886497</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>453</v>
-      </c>
-      <c r="B453" s="1">
-        <v>1.3559999999999879</v>
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>1.3514999999999999</v>
       </c>
       <c r="C453">
-        <v>64.927091582590506</v>
+        <v>85.612645389480605</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>454</v>
-      </c>
-      <c r="B454" s="1">
-        <v>1.3589999999999878</v>
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>1.3545</v>
       </c>
       <c r="C454">
-        <v>64.940983257344001</v>
+        <v>85.636242395534893</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>455</v>
-      </c>
-      <c r="B455" s="1">
-        <v>1.3619999999999877</v>
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>1.3574999999999999</v>
       </c>
       <c r="C455">
-        <v>64.955956070579106</v>
+        <v>85.659126827998506</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>456</v>
-      </c>
-      <c r="B456" s="1">
-        <v>1.3649999999999876</v>
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>1.3605</v>
       </c>
       <c r="C456">
-        <v>64.971933172527201</v>
+        <v>85.681312082245</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457">
-        <v>457</v>
-      </c>
-      <c r="B457" s="1">
-        <v>1.3679999999999874</v>
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>1.3634999999999999</v>
       </c>
       <c r="C457">
-        <v>64.988800172500206</v>
+        <v>85.702811366364102</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>458</v>
-      </c>
-      <c r="B458" s="1">
-        <v>1.3709999999999873</v>
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>1.3665</v>
       </c>
       <c r="C458">
-        <v>65.006409824048205</v>
+        <v>85.723637695552796</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>459</v>
-      </c>
-      <c r="B459" s="1">
-        <v>1.3739999999999872</v>
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>1.3694999999999999</v>
       </c>
       <c r="C459">
-        <v>65.024587909697203</v>
+        <v>85.743803886605306</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>460</v>
-      </c>
-      <c r="B460" s="1">
-        <v>1.3769999999999871</v>
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>1.3725000000000001</v>
       </c>
       <c r="C460">
-        <v>65.043140079619207</v>
+        <v>85.763322552503993</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461">
-        <v>461</v>
-      </c>
-      <c r="B461" s="1">
-        <v>1.379999999999987</v>
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>1.3754999999999999</v>
       </c>
       <c r="C461">
-        <v>65.061859366295494</v>
+        <v>85.782206097112393</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>462</v>
-      </c>
-      <c r="B462" s="1">
-        <v>1.3829999999999869</v>
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>1.3785000000000001</v>
       </c>
       <c r="C462">
-        <v>65.080534075823294</v>
+        <v>85.800466709970905</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>463</v>
-      </c>
-      <c r="B463" s="1">
-        <v>1.3859999999999868</v>
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>1.3815</v>
       </c>
       <c r="C463">
-        <v>65.098955746613896</v>
+        <v>85.818116361197397</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>464</v>
-      </c>
-      <c r="B464" s="1">
-        <v>1.3889999999999867</v>
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>1.3845000000000001</v>
       </c>
       <c r="C464">
-        <v>65.116926868037694</v>
+        <v>85.835166796493397</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>465</v>
-      </c>
-      <c r="B465" s="1">
-        <v>1.3919999999999866</v>
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>1.3875</v>
       </c>
       <c r="C465">
-        <v>65.134268064856897</v>
+        <v>85.851629532256297</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>466</v>
-      </c>
-      <c r="B466" s="1">
-        <v>1.3949999999999865</v>
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>1.3905000000000001</v>
       </c>
       <c r="C466">
-        <v>65.150824477409799</v>
+        <v>85.867515850800203</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>467</v>
-      </c>
-      <c r="B467" s="1">
-        <v>1.3979999999999864</v>
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>1.3935</v>
       </c>
       <c r="C467">
-        <v>65.166471101431796</v>
+        <v>85.882836795685293</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>468</v>
-      </c>
-      <c r="B468" s="1">
-        <v>1.4009999999999863</v>
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>1.3965000000000001</v>
       </c>
       <c r="C468">
-        <v>65.181116893740807</v>
+        <v>85.897603167156703</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469">
-        <v>469</v>
-      </c>
-      <c r="B469" s="1">
-        <v>1.4039999999999861</v>
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>1.3995</v>
       </c>
       <c r="C469">
-        <v>65.194707499109896</v>
+        <v>85.911825517695306</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>470</v>
-      </c>
-      <c r="B470" s="1">
-        <v>1.406999999999986</v>
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>1.4025000000000001</v>
       </c>
       <c r="C470">
-        <v>65.207226507606094</v>
+        <v>85.925514147679493</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>471</v>
-      </c>
-      <c r="B471" s="1">
-        <v>1.4099999999999859</v>
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>1.4055</v>
       </c>
       <c r="C471">
-        <v>65.218695208423497</v>
+        <v>85.938679101160901</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>472</v>
-      </c>
-      <c r="B472" s="1">
-        <v>1.4129999999999858</v>
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>1.4085000000000001</v>
       </c>
       <c r="C472">
-        <v>65.229170863677098</v>
+        <v>85.951330161752793</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>473</v>
-      </c>
-      <c r="B473" s="1">
-        <v>1.4159999999999857</v>
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>1.4115</v>
       </c>
       <c r="C473">
-        <v>65.238743581586704</v>
+        <v>85.9634768486345</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>474</v>
-      </c>
-      <c r="B474" s="1">
-        <v>1.4189999999999856</v>
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>1.4145000000000001</v>
       </c>
       <c r="C474">
-        <v>65.247531920946102</v>
+        <v>85.975128412670898</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475">
-        <v>475</v>
-      </c>
-      <c r="B475" s="1">
-        <v>1.4219999999999855</v>
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>1.4175</v>
       </c>
       <c r="C475">
-        <v>65.2556774057973</v>
+        <v>85.986293832648599</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>476</v>
-      </c>
-      <c r="B476" s="1">
-        <v>1.4249999999999854</v>
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>1.4205000000000001</v>
       </c>
       <c r="C476">
-        <v>65.263338169166403</v>
+        <v>85.996981811629794</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>477</v>
-      </c>
-      <c r="B477" s="1">
-        <v>1.4279999999999853</v>
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>1.4235</v>
       </c>
       <c r="C477">
-        <v>65.270681976108506</v>
+        <v>86.007200773423705</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
-        <v>478</v>
-      </c>
-      <c r="B478" s="1">
-        <v>1.4309999999999852</v>
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1.4265000000000001</v>
       </c>
       <c r="C478">
-        <v>65.277878898108099</v>
+        <v>86.016958859177805</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479">
-        <v>479</v>
-      </c>
-      <c r="B479" s="1">
-        <v>1.4339999999999851</v>
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>1.4295</v>
       </c>
       <c r="C479">
-        <v>65.285093922329807</v>
+        <v>86.026263924088695</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>480</v>
-      </c>
-      <c r="B480" s="1">
-        <v>1.436999999999985</v>
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>1.4325000000000001</v>
       </c>
       <c r="C480">
-        <v>65.292479779988398</v>
+        <v>86.035123534233094</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>481</v>
-      </c>
-      <c r="B481" s="1">
-        <v>1.4399999999999848</v>
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>1.4355</v>
       </c>
       <c r="C481">
-        <v>65.3001702682526</v>
+        <v>86.043544963520006</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>482</v>
-      </c>
-      <c r="B482" s="1">
-        <v>1.4429999999999847</v>
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>1.4384999999999999</v>
       </c>
       <c r="C482">
-        <v>65.3082743200561</v>
+        <v>86.051535190765605</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>483</v>
-      </c>
-      <c r="B483" s="1">
-        <v>1.4459999999999846</v>
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>1.4415</v>
       </c>
       <c r="C483">
-        <v>65.316871046763396</v>
+        <v>86.059100896889802</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
-        <v>484</v>
-      </c>
-      <c r="B484" s="1">
-        <v>1.4489999999999845</v>
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>1.4444999999999999</v>
       </c>
       <c r="C484">
-        <v>65.326005940995998</v>
+        <v>86.066248462236402</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>485</v>
-      </c>
-      <c r="B485" s="1">
-        <v>1.4519999999999844</v>
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>1.4475</v>
       </c>
       <c r="C485">
-        <v>65.335688382473606</v>
+        <v>86.0729839640167</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486">
-        <v>486</v>
-      </c>
-      <c r="B486" s="1">
-        <v>1.4549999999999843</v>
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>1.4504999999999999</v>
       </c>
       <c r="C486">
-        <v>65.345890540186303</v>
+        <v>86.079313173877907</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>487</v>
-      </c>
-      <c r="B487" s="1">
-        <v>1.4579999999999842</v>
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>1.4535</v>
       </c>
       <c r="C487">
-        <v>65.356547711405895</v>
+        <v>86.0852415555958</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>488</v>
-      </c>
-      <c r="B488" s="1">
-        <v>1.4609999999999841</v>
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>1.4564999999999999</v>
       </c>
       <c r="C488">
-        <v>65.367560083961607</v>
+        <v>86.090774262893305</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>489</v>
-      </c>
-      <c r="B489" s="1">
-        <v>1.463999999999984</v>
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>1.4595</v>
       </c>
       <c r="C489">
-        <v>65.378795854836994</v>
+        <v>86.095916137384506</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>490</v>
-      </c>
-      <c r="B490" s="1">
-        <v>1.4669999999999839</v>
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1.4624999999999999</v>
       </c>
       <c r="C490">
-        <v>65.390095587455804</v>
+        <v>86.100671706645301</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>491</v>
-      </c>
-      <c r="B491" s="1">
-        <v>1.4699999999999838</v>
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1.4655</v>
       </c>
       <c r="C491">
-        <v>65.401277643885393</v>
+        <v>86.105045182410393</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>492</v>
-      </c>
-      <c r="B492" s="1">
-        <v>1.4729999999999837</v>
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>1.4684999999999999</v>
       </c>
       <c r="C492">
-        <v>65.412144488267202</v>
+        <v>86.109040458897795</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>493</v>
-      </c>
-      <c r="B493" s="1">
-        <v>1.4759999999999835</v>
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>1.4715</v>
       </c>
       <c r="C493">
-        <v>65.422489625545495</v>
+        <v>86.112661111260394</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
-        <v>494</v>
-      </c>
-      <c r="B494" s="1">
-        <v>1.4789999999999834</v>
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>1.4744999999999999</v>
       </c>
       <c r="C494">
-        <v>65.432104916172705</v>
+        <v>86.115910394165695</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
-        <v>495</v>
-      </c>
-      <c r="B495" s="1">
-        <v>1.4819999999999833</v>
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>1.4775</v>
       </c>
       <c r="C495">
-        <v>65.440787993747904</v>
+        <v>86.118791240503796</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>496</v>
-      </c>
-      <c r="B496" s="1">
-        <v>1.4849999999999832</v>
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>1.4804999999999999</v>
       </c>
       <c r="C496">
-        <v>65.448349508991299</v>
+        <v>86.121306260223093</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>497</v>
-      </c>
-      <c r="B497" s="1">
-        <v>1.4879999999999831</v>
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>1.4835</v>
       </c>
       <c r="C497">
-        <v>65.454619930165904</v>
+        <v>86.123457739295503</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>498</v>
-      </c>
-      <c r="B498" s="1">
-        <v>1.490999999999983</v>
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>1.4864999999999999</v>
       </c>
       <c r="C498">
-        <v>65.459455646766102</v>
+        <v>86.125247638809995</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>499</v>
-      </c>
-      <c r="B499" s="1">
-        <v>1.4939999999999829</v>
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>1.4895</v>
       </c>
       <c r="C499">
-        <v>65.462744149368902</v>
+        <v>86.126677594195399</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>500</v>
-      </c>
-      <c r="B500" s="1">
-        <v>1.4969999999999828</v>
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1.4924999999999999</v>
       </c>
       <c r="C500">
-        <v>65.464408093007904</v>
+        <v>86.127748914572905</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>1.4955000000000001</v>
+      </c>
+      <c r="C501">
+        <v>86.128462582236907</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502">
         <v>501</v>
       </c>
-      <c r="B501" s="1">
-        <v>1.4999999999999827</v>
-      </c>
-      <c r="C501">
-        <v>65.464408093007904</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B502" s="1"/>
+      <c r="B502">
+        <v>1.4984999999999999</v>
+      </c>
+      <c r="C502">
+        <v>86.128819252266794</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>1.5</v>
+      </c>
+      <c r="C503">
+        <v>86.128819252266794</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>1.5015000000000001</v>
+      </c>
+      <c r="C504">
+        <v>86.128819252266794</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B504">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <conditionalFormatting sqref="B505:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
